--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3847884.647129526</v>
+        <v>3845180.778582484</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57408.77620656312</v>
+        <v>57408.77620656521</v>
       </c>
     </row>
     <row r="9">
@@ -740,14 +740,14 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -782,11 +782,11 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="R3" t="n">
-        <v>4.018462044011844</v>
-      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1387,7 +1387,7 @@
         <v>377.6230785962173</v>
       </c>
       <c r="H11" t="n">
-        <v>209.5036910954343</v>
+        <v>254.7566471204335</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>295.1626572897715</v>
       </c>
       <c r="W11" t="n">
-        <v>316.6513675370496</v>
+        <v>271.3984115120498</v>
       </c>
       <c r="X11" t="n">
         <v>337.1414994981056</v>
@@ -1545,7 +1545,7 @@
         <v>133.1181535080757</v>
       </c>
       <c r="H13" t="n">
-        <v>109.337628351811</v>
+        <v>109.3376283518111</v>
       </c>
       <c r="I13" t="n">
         <v>54.19808094303312</v>
@@ -1578,13 +1578,13 @@
         <v>42.04170639756181</v>
       </c>
       <c r="S13" t="n">
-        <v>151.6366178345398</v>
+        <v>151.6366178345403</v>
       </c>
       <c r="T13" t="n">
         <v>185.6003919305617</v>
       </c>
       <c r="U13" t="n">
-        <v>253.6048886486726</v>
+        <v>253.6048886486717</v>
       </c>
       <c r="V13" t="n">
         <v>219.5480421434646</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>350.1442404831172</v>
+        <v>350.1442404831171</v>
       </c>
       <c r="C14" t="n">
-        <v>332.6832905906442</v>
+        <v>287.4303345656451</v>
       </c>
       <c r="D14" t="n">
-        <v>322.0934404403196</v>
+        <v>322.0934404403195</v>
       </c>
       <c r="E14" t="n">
-        <v>349.3407688918984</v>
+        <v>349.3407688918983</v>
       </c>
       <c r="F14" t="n">
-        <v>329.0334885363483</v>
+        <v>374.286444561348</v>
       </c>
       <c r="G14" t="n">
-        <v>377.6230785962173</v>
+        <v>377.6230785962172</v>
       </c>
       <c r="H14" t="n">
         <v>254.7566471204335</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.44077768857355</v>
+        <v>60.44077768857346</v>
       </c>
       <c r="T14" t="n">
-        <v>168.2245206332461</v>
+        <v>168.224520633246</v>
       </c>
       <c r="U14" t="n">
-        <v>218.3488471083888</v>
+        <v>218.3488471083887</v>
       </c>
       <c r="V14" t="n">
         <v>295.1626572897715</v>
@@ -1675,7 +1675,7 @@
         <v>337.1414994981056</v>
       </c>
       <c r="Y14" t="n">
-        <v>353.6483374756902</v>
+        <v>353.6483374756901</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>134.6572199182644</v>
       </c>
       <c r="D16" t="n">
-        <v>116.025871837849</v>
+        <v>116.0258718378489</v>
       </c>
       <c r="E16" t="n">
-        <v>113.8443614662058</v>
+        <v>113.8443614662057</v>
       </c>
       <c r="F16" t="n">
-        <v>112.8314468425679</v>
+        <v>112.8314468425678</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1181535080758</v>
+        <v>133.1181535080757</v>
       </c>
       <c r="H16" t="n">
-        <v>109.3376283518114</v>
+        <v>109.337628351811</v>
       </c>
       <c r="I16" t="n">
-        <v>54.19808094303316</v>
+        <v>54.19808094303308</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04170639756185</v>
+        <v>42.04170639756178</v>
       </c>
       <c r="S16" t="n">
-        <v>151.6366178345403</v>
+        <v>151.6366178345402</v>
       </c>
       <c r="T16" t="n">
-        <v>185.6003919305617</v>
+        <v>185.6003919305616</v>
       </c>
       <c r="U16" t="n">
-        <v>253.6048886486714</v>
+        <v>253.6048886486718</v>
       </c>
       <c r="V16" t="n">
         <v>219.5480421434646</v>
@@ -1830,10 +1830,10 @@
         <v>253.9333971562276</v>
       </c>
       <c r="X16" t="n">
-        <v>193.1200542086738</v>
+        <v>193.1200542086737</v>
       </c>
       <c r="Y16" t="n">
-        <v>185.9950521717314</v>
+        <v>185.9950521717313</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>346.9118864813315</v>
       </c>
       <c r="C17" t="n">
-        <v>329.4509365888585</v>
+        <v>329.4509365888584</v>
       </c>
       <c r="D17" t="n">
-        <v>318.8610864385339</v>
+        <v>318.861086438534</v>
       </c>
       <c r="E17" t="n">
         <v>346.1084148901127</v>
       </c>
       <c r="F17" t="n">
-        <v>371.0540905595624</v>
+        <v>371.0540905595623</v>
       </c>
       <c r="G17" t="n">
         <v>374.3907245944316</v>
       </c>
       <c r="H17" t="n">
-        <v>251.5242931186479</v>
+        <v>251.5242931186478</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.20842368678788</v>
+        <v>57.20842368678782</v>
       </c>
       <c r="T17" t="n">
         <v>164.9921666314604</v>
       </c>
       <c r="U17" t="n">
-        <v>215.1164931066029</v>
+        <v>215.116493106603</v>
       </c>
       <c r="V17" t="n">
-        <v>291.9303032879859</v>
+        <v>291.9303032879858</v>
       </c>
       <c r="W17" t="n">
-        <v>313.419013535264</v>
+        <v>313.4190135352639</v>
       </c>
       <c r="X17" t="n">
-        <v>333.90914549632</v>
+        <v>333.9091454963199</v>
       </c>
       <c r="Y17" t="n">
         <v>350.4159834739045</v>
@@ -2004,25 +2004,25 @@
         <v>144.0100249997882</v>
       </c>
       <c r="C19" t="n">
-        <v>131.4248659164788</v>
+        <v>131.4248659164787</v>
       </c>
       <c r="D19" t="n">
-        <v>112.7935178360633</v>
+        <v>112.7935178360632</v>
       </c>
       <c r="E19" t="n">
         <v>110.6120074644201</v>
       </c>
       <c r="F19" t="n">
-        <v>109.5990928407822</v>
+        <v>109.5990928407821</v>
       </c>
       <c r="G19" t="n">
         <v>129.8857995062901</v>
       </c>
       <c r="H19" t="n">
-        <v>106.1052743500255</v>
+        <v>106.1052743500254</v>
       </c>
       <c r="I19" t="n">
-        <v>50.96572694124748</v>
+        <v>50.96572694124742</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.80935239577617</v>
+        <v>38.80935239577612</v>
       </c>
       <c r="S19" t="n">
         <v>148.4042638327546</v>
@@ -2067,7 +2067,7 @@
         <v>250.7010431544419</v>
       </c>
       <c r="X19" t="n">
-        <v>189.8877002068881</v>
+        <v>189.887700206888</v>
       </c>
       <c r="Y19" t="n">
         <v>182.7626981699457</v>
@@ -2083,19 +2083,19 @@
         <v>346.9118864813315</v>
       </c>
       <c r="C20" t="n">
-        <v>329.4509365888585</v>
+        <v>329.4509365888584</v>
       </c>
       <c r="D20" t="n">
-        <v>318.8610864385339</v>
+        <v>318.8610864385338</v>
       </c>
       <c r="E20" t="n">
         <v>346.1084148901127</v>
       </c>
       <c r="F20" t="n">
-        <v>371.0540905595624</v>
+        <v>371.0540905595623</v>
       </c>
       <c r="G20" t="n">
-        <v>374.3907245944316</v>
+        <v>374.3907245944318</v>
       </c>
       <c r="H20" t="n">
         <v>251.5242931186478</v>
@@ -2137,16 +2137,16 @@
         <v>164.9921666314604</v>
       </c>
       <c r="U20" t="n">
-        <v>215.1164931066029</v>
+        <v>215.1164931066025</v>
       </c>
       <c r="V20" t="n">
-        <v>291.9303032879859</v>
+        <v>291.9303032879858</v>
       </c>
       <c r="W20" t="n">
-        <v>313.419013535264</v>
+        <v>313.4190135352639</v>
       </c>
       <c r="X20" t="n">
-        <v>333.90914549632</v>
+        <v>333.9091454963199</v>
       </c>
       <c r="Y20" t="n">
         <v>350.4159834739045</v>
@@ -2180,7 +2180,7 @@
         <v>85.9329310181113</v>
       </c>
       <c r="I21" t="n">
-        <v>5.755473204212763</v>
+        <v>5.755473204212777</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>144.0100249997882</v>
       </c>
       <c r="C22" t="n">
-        <v>131.4248659164788</v>
+        <v>131.4248659164787</v>
       </c>
       <c r="D22" t="n">
-        <v>112.7935178360633</v>
+        <v>112.7935178360632</v>
       </c>
       <c r="E22" t="n">
         <v>110.6120074644201</v>
       </c>
       <c r="F22" t="n">
-        <v>109.5990928407822</v>
+        <v>109.5990928407821</v>
       </c>
       <c r="G22" t="n">
         <v>129.8857995062901</v>
       </c>
       <c r="H22" t="n">
-        <v>106.1052743500255</v>
+        <v>106.1052743500254</v>
       </c>
       <c r="I22" t="n">
-        <v>50.96572694124747</v>
+        <v>50.96572694124742</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.80935239577616</v>
+        <v>38.80935239577612</v>
       </c>
       <c r="S22" t="n">
         <v>148.4042638327546</v>
@@ -2304,7 +2304,7 @@
         <v>250.7010431544419</v>
       </c>
       <c r="X22" t="n">
-        <v>189.8877002068881</v>
+        <v>189.887700206888</v>
       </c>
       <c r="Y22" t="n">
         <v>182.7626981699457</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.20842368678782</v>
+        <v>57.20842368678802</v>
       </c>
       <c r="T23" t="n">
         <v>164.9921666314603</v>
       </c>
       <c r="U23" t="n">
-        <v>215.116493106603</v>
+        <v>215.1164931066029</v>
       </c>
       <c r="V23" t="n">
         <v>291.9303032879858</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>313.8705209056118</v>
+        <v>350.1442404831172</v>
       </c>
       <c r="C26" t="n">
         <v>332.6832905906442</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.44077768857353</v>
+        <v>24.16705811106493</v>
       </c>
       <c r="T26" t="n">
         <v>168.2245206332461</v>
@@ -2733,7 +2733,7 @@
         <v>109.3376283518111</v>
       </c>
       <c r="I28" t="n">
-        <v>54.19808094303313</v>
+        <v>54.19808094303314</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04170639756155</v>
+        <v>42.04170639756291</v>
       </c>
       <c r="S28" t="n">
         <v>151.6366178345403</v>
       </c>
       <c r="T28" t="n">
-        <v>185.6003919305616</v>
+        <v>185.6003919305617</v>
       </c>
       <c r="U28" t="n">
-        <v>253.6048886486724</v>
+        <v>253.6048886486717</v>
       </c>
       <c r="V28" t="n">
         <v>219.5480421434646</v>
@@ -2803,13 +2803,13 @@
         <v>349.3407688918984</v>
       </c>
       <c r="F29" t="n">
-        <v>374.286444561348</v>
+        <v>374.2864445613481</v>
       </c>
       <c r="G29" t="n">
-        <v>332.3701225712185</v>
+        <v>377.6230785962173</v>
       </c>
       <c r="H29" t="n">
-        <v>254.7566471204335</v>
+        <v>254.7566471204336</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.44077768857353</v>
+        <v>60.44077768857359</v>
       </c>
       <c r="T29" t="n">
         <v>168.2245206332461</v>
@@ -2851,16 +2851,16 @@
         <v>218.3488471083888</v>
       </c>
       <c r="V29" t="n">
-        <v>295.1626572897715</v>
+        <v>249.9097012647694</v>
       </c>
       <c r="W29" t="n">
-        <v>316.6513675370496</v>
+        <v>316.6513675370497</v>
       </c>
       <c r="X29" t="n">
-        <v>337.1414994981056</v>
+        <v>337.1414994981057</v>
       </c>
       <c r="Y29" t="n">
-        <v>353.6483374756902</v>
+        <v>353.6483374756903</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.2423790015739</v>
+        <v>147.242379001574</v>
       </c>
       <c r="C31" t="n">
-        <v>134.6572199182644</v>
+        <v>134.6572199182645</v>
       </c>
       <c r="D31" t="n">
         <v>116.025871837849</v>
@@ -2967,10 +2967,10 @@
         <v>133.1181535080758</v>
       </c>
       <c r="H31" t="n">
-        <v>109.3376283518111</v>
+        <v>109.3376283518112</v>
       </c>
       <c r="I31" t="n">
-        <v>54.19808094303313</v>
+        <v>54.19808094303318</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04170639756182</v>
+        <v>42.04170639756187</v>
       </c>
       <c r="S31" t="n">
         <v>151.6366178345403</v>
       </c>
       <c r="T31" t="n">
-        <v>185.6003919305617</v>
+        <v>185.6003919305618</v>
       </c>
       <c r="U31" t="n">
         <v>253.6048886486719</v>
       </c>
       <c r="V31" t="n">
-        <v>219.5480421434646</v>
+        <v>219.5480421434647</v>
       </c>
       <c r="W31" t="n">
-        <v>253.9333971562276</v>
+        <v>253.9333971562277</v>
       </c>
       <c r="X31" t="n">
         <v>193.1200542086738</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.9950521717314</v>
+        <v>185.9950521717315</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>346.9118864813316</v>
+        <v>346.9118864813315</v>
       </c>
       <c r="C32" t="n">
-        <v>329.4509365888586</v>
+        <v>329.4509365888584</v>
       </c>
       <c r="D32" t="n">
-        <v>318.861086438534</v>
+        <v>318.8610864385338</v>
       </c>
       <c r="E32" t="n">
-        <v>346.1084148901128</v>
+        <v>346.1084148901127</v>
       </c>
       <c r="F32" t="n">
-        <v>371.0540905595624</v>
+        <v>371.0540905595623</v>
       </c>
       <c r="G32" t="n">
-        <v>374.3907245944317</v>
+        <v>374.3907245944316</v>
       </c>
       <c r="H32" t="n">
-        <v>251.5242931186479</v>
+        <v>251.5242931186478</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.20842368678792</v>
+        <v>57.20842368678781</v>
       </c>
       <c r="T32" t="n">
-        <v>164.9921666314609</v>
+        <v>164.9921666314605</v>
       </c>
       <c r="U32" t="n">
-        <v>215.1164931066029</v>
+        <v>215.116493106602</v>
       </c>
       <c r="V32" t="n">
-        <v>291.9303032879859</v>
+        <v>291.9303032879858</v>
       </c>
       <c r="W32" t="n">
-        <v>313.419013535264</v>
+        <v>313.4190135352639</v>
       </c>
       <c r="X32" t="n">
-        <v>333.90914549632</v>
+        <v>333.9091454963199</v>
       </c>
       <c r="Y32" t="n">
-        <v>350.4159834739046</v>
+        <v>350.4159834739045</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>144.0100249997883</v>
+        <v>144.0100249997882</v>
       </c>
       <c r="C34" t="n">
-        <v>131.4248659164788</v>
+        <v>131.4248659164787</v>
       </c>
       <c r="D34" t="n">
-        <v>112.7935178360634</v>
+        <v>112.7935178360632</v>
       </c>
       <c r="E34" t="n">
-        <v>110.6120074644202</v>
+        <v>110.6120074644201</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5990928407822</v>
+        <v>109.5990928407821</v>
       </c>
       <c r="G34" t="n">
-        <v>129.8857995062902</v>
+        <v>129.8857995062901</v>
       </c>
       <c r="H34" t="n">
-        <v>106.1052743500255</v>
+        <v>106.1052743500254</v>
       </c>
       <c r="I34" t="n">
-        <v>50.96572694124752</v>
+        <v>50.96572694124741</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.80935239577622</v>
+        <v>38.8093523957761</v>
       </c>
       <c r="S34" t="n">
-        <v>148.4042638327547</v>
+        <v>148.4042638327546</v>
       </c>
       <c r="T34" t="n">
-        <v>182.3680379287761</v>
+        <v>182.368037928776</v>
       </c>
       <c r="U34" t="n">
-        <v>250.3725346468863</v>
+        <v>250.3725346468862</v>
       </c>
       <c r="V34" t="n">
-        <v>216.315688141679</v>
+        <v>216.3156881416789</v>
       </c>
       <c r="W34" t="n">
-        <v>250.701043154442</v>
+        <v>250.7010431544419</v>
       </c>
       <c r="X34" t="n">
-        <v>189.8877002068882</v>
+        <v>189.887700206888</v>
       </c>
       <c r="Y34" t="n">
-        <v>182.7626981699458</v>
+        <v>182.7626981699457</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>346.9118864813314</v>
+        <v>346.9118864813315</v>
       </c>
       <c r="C35" t="n">
-        <v>329.4509365888583</v>
+        <v>329.4509365888584</v>
       </c>
       <c r="D35" t="n">
         <v>318.8610864385338</v>
       </c>
       <c r="E35" t="n">
-        <v>346.1084148901126</v>
+        <v>346.1084148901127</v>
       </c>
       <c r="F35" t="n">
         <v>371.0540905595623</v>
       </c>
       <c r="G35" t="n">
-        <v>374.3907245944315</v>
+        <v>374.3907245944316</v>
       </c>
       <c r="H35" t="n">
-        <v>251.5242931186477</v>
+        <v>251.5242931186478</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.20842368678773</v>
+        <v>57.20842368678781</v>
       </c>
       <c r="T35" t="n">
         <v>164.9921666314605</v>
@@ -3325,16 +3325,16 @@
         <v>215.1164931066029</v>
       </c>
       <c r="V35" t="n">
-        <v>291.9303032879857</v>
+        <v>291.9303032879858</v>
       </c>
       <c r="W35" t="n">
-        <v>313.4190135352638</v>
+        <v>313.4190135352639</v>
       </c>
       <c r="X35" t="n">
         <v>333.9091454963199</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.4159834739044</v>
+        <v>350.4159834739045</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.0100249997881</v>
+        <v>144.0100249997882</v>
       </c>
       <c r="C37" t="n">
-        <v>131.4248659164786</v>
+        <v>131.4248659164787</v>
       </c>
       <c r="D37" t="n">
         <v>112.7935178360632</v>
       </c>
       <c r="E37" t="n">
-        <v>110.61200746442</v>
+        <v>110.6120074644201</v>
       </c>
       <c r="F37" t="n">
-        <v>109.599092840782</v>
+        <v>109.5990928407821</v>
       </c>
       <c r="G37" t="n">
-        <v>129.88579950629</v>
+        <v>129.8857995062901</v>
       </c>
       <c r="H37" t="n">
-        <v>106.1052743500253</v>
+        <v>106.1052743500254</v>
       </c>
       <c r="I37" t="n">
-        <v>50.96572694124733</v>
+        <v>50.96572694124741</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>38.80935239577602</v>
+        <v>38.8093523957761</v>
       </c>
       <c r="S37" t="n">
-        <v>148.4042638327545</v>
+        <v>148.4042638327546</v>
       </c>
       <c r="T37" t="n">
-        <v>182.3680379287759</v>
+        <v>182.368037928776</v>
       </c>
       <c r="U37" t="n">
-        <v>250.3725346468861</v>
+        <v>250.3725346468862</v>
       </c>
       <c r="V37" t="n">
-        <v>216.3156881416788</v>
+        <v>216.3156881416789</v>
       </c>
       <c r="W37" t="n">
-        <v>250.7010431544418</v>
+        <v>250.7010431544419</v>
       </c>
       <c r="X37" t="n">
         <v>189.887700206888</v>
       </c>
       <c r="Y37" t="n">
-        <v>182.7626981699456</v>
+        <v>182.7626981699457</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>346.9118864813314</v>
+        <v>346.9118864813315</v>
       </c>
       <c r="C38" t="n">
         <v>329.4509365888584</v>
@@ -3511,19 +3511,19 @@
         <v>318.8610864385338</v>
       </c>
       <c r="E38" t="n">
-        <v>346.1084148901126</v>
+        <v>346.1084148901127</v>
       </c>
       <c r="F38" t="n">
         <v>371.0540905595623</v>
       </c>
       <c r="G38" t="n">
-        <v>374.3907245944315</v>
+        <v>374.3907245944316</v>
       </c>
       <c r="H38" t="n">
-        <v>251.5242931186477</v>
+        <v>251.5242931186478</v>
       </c>
       <c r="I38" t="n">
-        <v>1.223980916620349e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.20842368678775</v>
+        <v>57.20842368678779</v>
       </c>
       <c r="T38" t="n">
-        <v>164.9921666314605</v>
+        <v>164.9921666314603</v>
       </c>
       <c r="U38" t="n">
-        <v>215.1164931066029</v>
+        <v>215.1164931066038</v>
       </c>
       <c r="V38" t="n">
-        <v>291.9303032879857</v>
+        <v>291.9303032879858</v>
       </c>
       <c r="W38" t="n">
-        <v>313.4190135352638</v>
+        <v>313.4190135352639</v>
       </c>
       <c r="X38" t="n">
         <v>333.9091454963199</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.4159834739044</v>
+        <v>350.4159834739045</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.0100249997881</v>
+        <v>144.0100249997882</v>
       </c>
       <c r="C40" t="n">
         <v>131.4248659164787</v>
@@ -3681,7 +3681,7 @@
         <v>106.1052743500254</v>
       </c>
       <c r="I40" t="n">
-        <v>50.96572694124735</v>
+        <v>50.96572694124738</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.80935239577605</v>
+        <v>38.80935239577607</v>
       </c>
       <c r="S40" t="n">
         <v>148.4042638327545</v>
@@ -3720,16 +3720,16 @@
         <v>250.3725346468861</v>
       </c>
       <c r="V40" t="n">
-        <v>216.3156881416788</v>
+        <v>216.3156881416789</v>
       </c>
       <c r="W40" t="n">
-        <v>250.7010431544418</v>
+        <v>250.7010431544419</v>
       </c>
       <c r="X40" t="n">
         <v>189.887700206888</v>
       </c>
       <c r="Y40" t="n">
-        <v>182.7626981699456</v>
+        <v>182.7626981699457</v>
       </c>
     </row>
     <row r="41">
@@ -3745,10 +3745,10 @@
         <v>332.6832905906442</v>
       </c>
       <c r="D41" t="n">
-        <v>276.8404844153207</v>
+        <v>322.0934404403196</v>
       </c>
       <c r="E41" t="n">
-        <v>349.3407688918984</v>
+        <v>304.0878128668983</v>
       </c>
       <c r="F41" t="n">
         <v>374.286444561348</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.44077768857353</v>
+        <v>60.44077768857356</v>
       </c>
       <c r="T41" t="n">
         <v>168.2245206332461</v>
@@ -3799,7 +3799,7 @@
         <v>218.3488471083888</v>
       </c>
       <c r="V41" t="n">
-        <v>295.1626572897715</v>
+        <v>295.1626572897716</v>
       </c>
       <c r="W41" t="n">
         <v>316.6513675370496</v>
@@ -3808,7 +3808,7 @@
         <v>337.1414994981056</v>
       </c>
       <c r="Y41" t="n">
-        <v>353.6483374756902</v>
+        <v>353.6483374756903</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>147.2423790015739</v>
       </c>
       <c r="C43" t="n">
-        <v>134.6572199182644</v>
+        <v>134.6572199182645</v>
       </c>
       <c r="D43" t="n">
         <v>116.025871837849</v>
@@ -3915,10 +3915,10 @@
         <v>133.1181535080758</v>
       </c>
       <c r="H43" t="n">
-        <v>109.3376283518111</v>
+        <v>109.3376283518112</v>
       </c>
       <c r="I43" t="n">
-        <v>54.19808094303314</v>
+        <v>54.19808094303316</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04170639756183</v>
+        <v>42.04170639756185</v>
       </c>
       <c r="S43" t="n">
         <v>151.6366178345403</v>
@@ -3954,7 +3954,7 @@
         <v>185.6003919305617</v>
       </c>
       <c r="U43" t="n">
-        <v>253.6048886486726</v>
+        <v>253.6048886486717</v>
       </c>
       <c r="V43" t="n">
         <v>219.5480421434646</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>350.1442404831171</v>
+        <v>350.1442404831172</v>
       </c>
       <c r="C44" t="n">
-        <v>332.6832905906441</v>
+        <v>332.6832905906442</v>
       </c>
       <c r="D44" t="n">
-        <v>322.0934404403195</v>
+        <v>322.0934404403196</v>
       </c>
       <c r="E44" t="n">
-        <v>349.3407688918983</v>
+        <v>349.3407688918984</v>
       </c>
       <c r="F44" t="n">
         <v>374.286444561348</v>
       </c>
       <c r="G44" t="n">
-        <v>377.6230785962172</v>
+        <v>377.6230785962173</v>
       </c>
       <c r="H44" t="n">
         <v>254.7566471204335</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.4407776885735</v>
+        <v>60.44077768857353</v>
       </c>
       <c r="T44" t="n">
         <v>168.2245206332461</v>
       </c>
       <c r="U44" t="n">
-        <v>218.3488471083887</v>
+        <v>218.3488471083888</v>
       </c>
       <c r="V44" t="n">
-        <v>249.9097012647735</v>
+        <v>295.1626572897715</v>
       </c>
       <c r="W44" t="n">
         <v>316.6513675370496</v>
@@ -4045,7 +4045,7 @@
         <v>337.1414994981056</v>
       </c>
       <c r="Y44" t="n">
-        <v>353.6483374756901</v>
+        <v>308.3953814506893</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>134.6572199182644</v>
       </c>
       <c r="D46" t="n">
-        <v>116.0258718378489</v>
+        <v>116.025871837849</v>
       </c>
       <c r="E46" t="n">
         <v>113.8443614662058</v>
       </c>
       <c r="F46" t="n">
-        <v>112.8314468425678</v>
+        <v>112.8314468425679</v>
       </c>
       <c r="G46" t="n">
-        <v>133.1181535080757</v>
+        <v>133.1181535080758</v>
       </c>
       <c r="H46" t="n">
         <v>109.3376283518111</v>
       </c>
       <c r="I46" t="n">
-        <v>54.19808094303448</v>
+        <v>54.19808094303313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.0417063975618</v>
+        <v>42.04170639756182</v>
       </c>
       <c r="S46" t="n">
-        <v>151.6366178345402</v>
+        <v>151.6366178345403</v>
       </c>
       <c r="T46" t="n">
         <v>185.6003919305617</v>
       </c>
       <c r="U46" t="n">
-        <v>253.6048886486718</v>
+        <v>253.6048886486719</v>
       </c>
       <c r="V46" t="n">
         <v>219.5480421434646</v>
@@ -4200,7 +4200,7 @@
         <v>253.9333971562276</v>
       </c>
       <c r="X46" t="n">
-        <v>193.1200542086737</v>
+        <v>193.1200542086738</v>
       </c>
       <c r="Y46" t="n">
         <v>185.9950521717314</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.581723550112187</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="C2" t="n">
         <v>9.581723550112187</v>
@@ -4324,58 +4324,58 @@
         <v>0.36498292861143</v>
       </c>
       <c r="H2" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="I2" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="J2" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="K2" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L2" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M2" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="N2" t="n">
-        <v>4.881646670177876</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="O2" t="n">
         <v>9.398310411744323</v>
       </c>
       <c r="P2" t="n">
-        <v>9.581723550112187</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.581723550112187</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="R2" t="n">
-        <v>9.581723550112187</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="S2" t="n">
-        <v>9.581723550112187</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="T2" t="n">
-        <v>9.581723550112187</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="U2" t="n">
-        <v>9.581723550112187</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="V2" t="n">
-        <v>9.581723550112187</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="W2" t="n">
-        <v>9.581723550112187</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="X2" t="n">
-        <v>9.581723550112187</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.581723550112187</v>
+        <v>9.398310411744323</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>13.64077611982112</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.581723550112187</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.581723550112187</v>
+      </c>
+      <c r="E3" t="n">
         <v>4.973353239361809</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" t="n">
         <v>4.973353239361809</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.36498292861143</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.36498292861143</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.36498292861143</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H3" t="n">
         <v>0.36498292861143</v>
@@ -4430,31 +4430,31 @@
         <v>18.2491464305715</v>
       </c>
       <c r="Q3" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="R3" t="n">
         <v>13.64077611982112</v>
       </c>
-      <c r="R3" t="n">
-        <v>9.581723550112187</v>
-      </c>
       <c r="S3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W3" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X3" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
     </row>
     <row r="4">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="C5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="D5" t="n">
         <v>14.44108515774386</v>
@@ -4576,43 +4576,43 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="M5" t="n">
-        <v>2.708632980094611</v>
+        <v>2.708632980094639</v>
       </c>
       <c r="N5" t="n">
-        <v>9.515918264388933</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="O5" t="n">
-        <v>9.515918264388933</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="P5" t="n">
-        <v>9.515918264388933</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.515918264388933</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="R5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="S5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="T5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="U5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="V5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="W5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="X5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C6" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D6" t="n">
         <v>7.495584408540386</v>
       </c>
       <c r="E6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
         <v>0.5500836593369149</v>
@@ -4658,7 +4658,7 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N6" t="n">
-        <v>20.97193951221988</v>
+        <v>19.38528659390645</v>
       </c>
       <c r="O6" t="n">
         <v>26.19257187820077</v>
@@ -4667,31 +4667,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S6" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U6" t="n">
-        <v>13.6131814684388</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V6" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W6" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X6" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.495584408540386</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="7">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
         <v>14.44108515774386</v>
@@ -4801,55 +4801,55 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5500836593369149</v>
+        <v>5.475250552691811</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5500836593369149</v>
+        <v>5.475250552691811</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>5.475250552691811</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5500836593369149</v>
+        <v>5.475250552691811</v>
       </c>
       <c r="M8" t="n">
-        <v>2.708632980094639</v>
+        <v>7.633799873449536</v>
       </c>
       <c r="N8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="O8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="P8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="R8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.515918264388961</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5500836593369149</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
@@ -4919,16 +4919,16 @@
         <v>27.50418296684575</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="10">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2069.187754205464</v>
+        <v>2114.897810796372</v>
       </c>
       <c r="C11" t="n">
-        <v>1733.144026336126</v>
+        <v>1778.854082927034</v>
       </c>
       <c r="D11" t="n">
-        <v>1407.79711680045</v>
+        <v>1453.507173391358</v>
       </c>
       <c r="E11" t="n">
-        <v>1054.927653273279</v>
+        <v>1100.637709864188</v>
       </c>
       <c r="F11" t="n">
-        <v>676.8605375547461</v>
+        <v>722.5705941456545</v>
       </c>
       <c r="G11" t="n">
-        <v>295.4230844272539</v>
+        <v>341.1331410181622</v>
       </c>
       <c r="H11" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="I11" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J11" t="n">
-        <v>332.259914058202</v>
+        <v>332.2599140582015</v>
       </c>
       <c r="K11" t="n">
         <v>755.3706492637034</v>
       </c>
       <c r="L11" t="n">
-        <v>1317.17869215457</v>
+        <v>1317.178692154571</v>
       </c>
       <c r="M11" t="n">
-        <v>1973.967826135661</v>
+        <v>1973.967826135662</v>
       </c>
       <c r="N11" t="n">
-        <v>2645.998303335297</v>
+        <v>2645.998303335298</v>
       </c>
       <c r="O11" t="n">
         <v>3267.242365166717</v>
@@ -5062,31 +5062,31 @@
         <v>3762.958798091533</v>
       </c>
       <c r="Q11" t="n">
-        <v>4087.048448004002</v>
+        <v>4087.048448004001</v>
       </c>
       <c r="R11" t="n">
-        <v>4190.159721593284</v>
+        <v>4190.159721593283</v>
       </c>
       <c r="S11" t="n">
         <v>4129.108430998765</v>
       </c>
       <c r="T11" t="n">
-        <v>3959.184672783365</v>
+        <v>3959.184672783364</v>
       </c>
       <c r="U11" t="n">
-        <v>3738.630281764791</v>
+        <v>3738.63028176479</v>
       </c>
       <c r="V11" t="n">
-        <v>3440.486183492295</v>
+        <v>3440.486183492294</v>
       </c>
       <c r="W11" t="n">
-        <v>3120.636317293255</v>
+        <v>3166.346373884163</v>
       </c>
       <c r="X11" t="n">
-        <v>2780.089348103249</v>
+        <v>2825.799404694157</v>
       </c>
       <c r="Y11" t="n">
-        <v>2422.868805198511</v>
+        <v>2468.57886178942</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>176.417744151385</v>
       </c>
       <c r="H12" t="n">
-        <v>89.61680372905032</v>
+        <v>89.61680372905029</v>
       </c>
       <c r="I12" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J12" t="n">
-        <v>126.5699746200247</v>
+        <v>212.9644675853907</v>
       </c>
       <c r="K12" t="n">
-        <v>425.48198766923</v>
+        <v>511.876480634596</v>
       </c>
       <c r="L12" t="n">
-        <v>873.7286184025929</v>
+        <v>960.1231113679589</v>
       </c>
       <c r="M12" t="n">
-        <v>873.7286184025929</v>
+        <v>1502.562655178371</v>
       </c>
       <c r="N12" t="n">
-        <v>1444.933567774176</v>
+        <v>2073.767604549954</v>
       </c>
       <c r="O12" t="n">
-        <v>1945.254707305585</v>
+        <v>2556.234764211853</v>
       </c>
       <c r="P12" t="n">
-        <v>2327.473464627084</v>
+        <v>2556.234764211853</v>
       </c>
       <c r="Q12" t="n">
-        <v>2533.057385330425</v>
+        <v>2556.234764211853</v>
       </c>
       <c r="R12" t="n">
         <v>2556.234764211853</v>
@@ -5190,25 +5190,25 @@
         <v>383.4535608994615</v>
       </c>
       <c r="G13" t="n">
-        <v>248.9907795781729</v>
+        <v>248.990779578173</v>
       </c>
       <c r="H13" t="n">
         <v>138.5487307379597</v>
       </c>
       <c r="I13" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J13" t="n">
-        <v>183.4510556136005</v>
+        <v>183.4510556136</v>
       </c>
       <c r="K13" t="n">
-        <v>456.284465420189</v>
+        <v>456.2844654201886</v>
       </c>
       <c r="L13" t="n">
-        <v>851.9210018779645</v>
+        <v>851.9210018779642</v>
       </c>
       <c r="M13" t="n">
-        <v>1277.699532105076</v>
+        <v>1277.699532105075</v>
       </c>
       <c r="N13" t="n">
         <v>1699.555775763029</v>
@@ -5217,19 +5217,19 @@
         <v>2075.654952091669</v>
       </c>
       <c r="P13" t="n">
-        <v>2378.608620021938</v>
+        <v>2378.608620021937</v>
       </c>
       <c r="Q13" t="n">
         <v>2514.848944291274</v>
       </c>
       <c r="R13" t="n">
-        <v>2472.382574192727</v>
+        <v>2472.382574192726</v>
       </c>
       <c r="S13" t="n">
-        <v>2319.214273349757</v>
+        <v>2319.214273349756</v>
       </c>
       <c r="T13" t="n">
-        <v>2131.739129985554</v>
+        <v>2131.739129985553</v>
       </c>
       <c r="U13" t="n">
         <v>1875.572575794975</v>
@@ -5254,64 +5254,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2069.187754205463</v>
+        <v>2069.187754205464</v>
       </c>
       <c r="C14" t="n">
-        <v>1733.144026336126</v>
+        <v>1778.854082927034</v>
       </c>
       <c r="D14" t="n">
-        <v>1407.797116800449</v>
+        <v>1453.507173391358</v>
       </c>
       <c r="E14" t="n">
-        <v>1054.927653273279</v>
+        <v>1100.637709864188</v>
       </c>
       <c r="F14" t="n">
-        <v>722.5705941456545</v>
+        <v>722.5705941456542</v>
       </c>
       <c r="G14" t="n">
-        <v>341.1331410181622</v>
+        <v>341.1331410181621</v>
       </c>
       <c r="H14" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="I14" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J14" t="n">
-        <v>332.2599140582024</v>
+        <v>332.2599140582015</v>
       </c>
       <c r="K14" t="n">
-        <v>755.3706492637043</v>
+        <v>755.3706492637039</v>
       </c>
       <c r="L14" t="n">
-        <v>1317.178692154571</v>
+        <v>1317.17869215457</v>
       </c>
       <c r="M14" t="n">
         <v>1973.967826135662</v>
       </c>
       <c r="N14" t="n">
-        <v>2645.998303335299</v>
+        <v>2645.998303335298</v>
       </c>
       <c r="O14" t="n">
         <v>3267.242365166718</v>
       </c>
       <c r="P14" t="n">
-        <v>3762.958798091534</v>
+        <v>3762.958798091533</v>
       </c>
       <c r="Q14" t="n">
-        <v>4087.048448004002</v>
+        <v>4087.048448004001</v>
       </c>
       <c r="R14" t="n">
-        <v>4190.159721593284</v>
+        <v>4190.159721593283</v>
       </c>
       <c r="S14" t="n">
         <v>4129.108430998765</v>
       </c>
       <c r="T14" t="n">
-        <v>3959.184672783365</v>
+        <v>3959.184672783364</v>
       </c>
       <c r="U14" t="n">
-        <v>3738.630281764791</v>
+        <v>3738.63028176479</v>
       </c>
       <c r="V14" t="n">
         <v>3440.486183492294</v>
@@ -5351,31 +5351,31 @@
         <v>176.417744151385</v>
       </c>
       <c r="H15" t="n">
-        <v>89.61680372905032</v>
+        <v>89.61680372905029</v>
       </c>
       <c r="I15" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J15" t="n">
-        <v>83.80319443186569</v>
+        <v>212.9644675853907</v>
       </c>
       <c r="K15" t="n">
-        <v>382.715207481071</v>
+        <v>511.876480634596</v>
       </c>
       <c r="L15" t="n">
-        <v>382.715207481071</v>
+        <v>960.1231113679589</v>
       </c>
       <c r="M15" t="n">
-        <v>925.1547512914831</v>
+        <v>1502.562655178371</v>
       </c>
       <c r="N15" t="n">
-        <v>1444.933567774176</v>
+        <v>2073.767604549954</v>
       </c>
       <c r="O15" t="n">
-        <v>1945.254707305585</v>
+        <v>2533.057385330425</v>
       </c>
       <c r="P15" t="n">
-        <v>2327.473464627084</v>
+        <v>2533.057385330425</v>
       </c>
       <c r="Q15" t="n">
         <v>2533.057385330425</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>865.6342680357116</v>
+        <v>865.6342680357106</v>
       </c>
       <c r="C16" t="n">
-        <v>729.6168741788788</v>
+        <v>729.616874178878</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4190238376171</v>
+        <v>612.4190238376165</v>
       </c>
       <c r="E16" t="n">
-        <v>497.4247193262982</v>
+        <v>497.4247193262976</v>
       </c>
       <c r="F16" t="n">
-        <v>383.453560899462</v>
+        <v>383.4535608994614</v>
       </c>
       <c r="G16" t="n">
-        <v>248.9907795781733</v>
+        <v>248.9907795781729</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5487307379598</v>
+        <v>138.5487307379597</v>
       </c>
       <c r="I16" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J16" t="n">
         <v>183.4510556136003</v>
       </c>
       <c r="K16" t="n">
-        <v>456.2844654201885</v>
+        <v>456.2844654201888</v>
       </c>
       <c r="L16" t="n">
-        <v>851.921001877964</v>
+        <v>851.9210018779644</v>
       </c>
       <c r="M16" t="n">
-        <v>1277.699532105075</v>
+        <v>1277.699532105076</v>
       </c>
       <c r="N16" t="n">
         <v>1699.555775763029</v>
@@ -5454,34 +5454,34 @@
         <v>2075.654952091669</v>
       </c>
       <c r="P16" t="n">
-        <v>2378.608620021938</v>
+        <v>2378.608620021937</v>
       </c>
       <c r="Q16" t="n">
-        <v>2514.848944291274</v>
+        <v>2514.848944291273</v>
       </c>
       <c r="R16" t="n">
-        <v>2472.382574192727</v>
+        <v>2472.382574192726</v>
       </c>
       <c r="S16" t="n">
-        <v>2319.214273349757</v>
+        <v>2319.214273349756</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.739129985553</v>
+        <v>2131.739129985552</v>
       </c>
       <c r="U16" t="n">
-        <v>1875.572575794976</v>
+        <v>1875.572575794974</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.806876660163</v>
+        <v>1653.806876660162</v>
       </c>
       <c r="W16" t="n">
-        <v>1397.308495694276</v>
+        <v>1397.308495694275</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.237733867333</v>
+        <v>1202.237733867332</v>
       </c>
       <c r="Y16" t="n">
-        <v>1014.363943794877</v>
+        <v>1014.363943794876</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2095.307786543126</v>
+        <v>2095.307786543125</v>
       </c>
       <c r="C17" t="n">
-        <v>1762.529062715996</v>
+        <v>1762.529062715995</v>
       </c>
       <c r="D17" t="n">
         <v>1440.447157222527</v>
       </c>
       <c r="E17" t="n">
-        <v>1090.842697737565</v>
+        <v>1090.842697737564</v>
       </c>
       <c r="F17" t="n">
-        <v>716.040586061239</v>
+        <v>716.0405860612389</v>
       </c>
       <c r="G17" t="n">
-        <v>337.8681369759545</v>
+        <v>337.8681369759544</v>
       </c>
       <c r="H17" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="I17" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J17" t="n">
-        <v>332.259914058202</v>
+        <v>332.259914058201</v>
       </c>
       <c r="K17" t="n">
-        <v>755.3706492637034</v>
+        <v>755.3706492637032</v>
       </c>
       <c r="L17" t="n">
         <v>1317.17869215457</v>
@@ -5527,7 +5527,7 @@
         <v>1973.967826135661</v>
       </c>
       <c r="N17" t="n">
-        <v>2645.998303335297</v>
+        <v>2645.998303335298</v>
       </c>
       <c r="O17" t="n">
         <v>3267.242365166717</v>
@@ -5536,31 +5536,31 @@
         <v>3762.958798091533</v>
       </c>
       <c r="Q17" t="n">
-        <v>4087.048448004002</v>
+        <v>4087.048448004001</v>
       </c>
       <c r="R17" t="n">
-        <v>4190.159721593284</v>
+        <v>4190.159721593283</v>
       </c>
       <c r="S17" t="n">
-        <v>4132.373435040973</v>
+        <v>4132.373435040972</v>
       </c>
       <c r="T17" t="n">
-        <v>3965.714680867781</v>
+        <v>3965.71468086778</v>
       </c>
       <c r="U17" t="n">
-        <v>3748.425293891414</v>
+        <v>3748.425293891413</v>
       </c>
       <c r="V17" t="n">
-        <v>3453.546199661126</v>
+        <v>3453.546199661125</v>
       </c>
       <c r="W17" t="n">
-        <v>3136.961337504294</v>
+        <v>3136.961337504293</v>
       </c>
       <c r="X17" t="n">
-        <v>2799.679372356496</v>
+        <v>2799.679372356495</v>
       </c>
       <c r="Y17" t="n">
-        <v>2445.723833493966</v>
+        <v>2445.723833493965</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>176.417744151385</v>
       </c>
       <c r="H18" t="n">
-        <v>89.61680372905032</v>
+        <v>89.61680372905029</v>
       </c>
       <c r="I18" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J18" t="n">
-        <v>83.80319443186569</v>
+        <v>212.9644675853907</v>
       </c>
       <c r="K18" t="n">
-        <v>83.80319443186569</v>
+        <v>212.9644675853907</v>
       </c>
       <c r="L18" t="n">
-        <v>532.0498251652286</v>
+        <v>661.2110983187536</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.489368975641</v>
+        <v>1203.650642129166</v>
       </c>
       <c r="N18" t="n">
-        <v>1645.694318347224</v>
+        <v>1774.855591500749</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.015457878632</v>
+        <v>2275.176731032157</v>
       </c>
       <c r="P18" t="n">
-        <v>2528.234215200131</v>
+        <v>2556.234764211853</v>
       </c>
       <c r="Q18" t="n">
         <v>2556.234764211853</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>842.779239740257</v>
+        <v>842.7792397402567</v>
       </c>
       <c r="C19" t="n">
-        <v>710.026849925632</v>
+        <v>710.0268499256317</v>
       </c>
       <c r="D19" t="n">
-        <v>596.0940036265781</v>
+        <v>596.0940036265779</v>
       </c>
       <c r="E19" t="n">
-        <v>484.3647031574669</v>
+        <v>484.3647031574667</v>
       </c>
       <c r="F19" t="n">
-        <v>373.6585487728385</v>
+        <v>373.6585487728383</v>
       </c>
       <c r="G19" t="n">
-        <v>242.4607714937575</v>
+        <v>242.4607714937574</v>
       </c>
       <c r="H19" t="n">
         <v>135.283726695752</v>
       </c>
       <c r="I19" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J19" t="n">
-        <v>153.3512071658719</v>
+        <v>173.5003064998738</v>
       </c>
       <c r="K19" t="n">
-        <v>429.3846474342281</v>
+        <v>449.53374676823</v>
       </c>
       <c r="L19" t="n">
-        <v>828.2212143537714</v>
+        <v>848.3703136877734</v>
       </c>
       <c r="M19" t="n">
-        <v>1257.199775042651</v>
+        <v>1277.348874376653</v>
       </c>
       <c r="N19" t="n">
-        <v>1682.256049162372</v>
+        <v>1702.405148496374</v>
       </c>
       <c r="O19" t="n">
-        <v>2061.55525595278</v>
+        <v>2081.704355286782</v>
       </c>
       <c r="P19" t="n">
-        <v>2323.168524884846</v>
+        <v>2387.858053678819</v>
       </c>
       <c r="Q19" t="n">
-        <v>2462.60887961595</v>
+        <v>2462.608879615949</v>
       </c>
       <c r="R19" t="n">
-        <v>2423.40751355961</v>
+        <v>2423.407513559609</v>
       </c>
       <c r="S19" t="n">
-        <v>2273.504216758848</v>
+        <v>2273.504216758847</v>
       </c>
       <c r="T19" t="n">
-        <v>2089.294077436852</v>
+        <v>2089.294077436851</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.392527288482</v>
+        <v>1836.392527288481</v>
       </c>
       <c r="V19" t="n">
         <v>1617.891832195877</v>
       </c>
       <c r="W19" t="n">
-        <v>1364.658455272199</v>
+        <v>1364.658455272198</v>
       </c>
       <c r="X19" t="n">
         <v>1172.852697487463</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.2439114572148</v>
+        <v>988.2439114572145</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1090.842697737565</v>
       </c>
       <c r="F20" t="n">
-        <v>716.0405860612389</v>
+        <v>716.0405860612391</v>
       </c>
       <c r="G20" t="n">
         <v>337.8681369759544</v>
       </c>
       <c r="H20" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="I20" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J20" t="n">
         <v>332.2599140582015</v>
       </c>
       <c r="K20" t="n">
-        <v>755.3706492637036</v>
+        <v>755.3706492637034</v>
       </c>
       <c r="L20" t="n">
         <v>1317.178692154571</v>
@@ -5767,22 +5767,22 @@
         <v>2645.998303335298</v>
       </c>
       <c r="O20" t="n">
-        <v>3267.242365166718</v>
+        <v>3267.242365166717</v>
       </c>
       <c r="P20" t="n">
         <v>3762.958798091533</v>
       </c>
       <c r="Q20" t="n">
-        <v>4087.048448004002</v>
+        <v>4087.048448004001</v>
       </c>
       <c r="R20" t="n">
-        <v>4190.159721593284</v>
+        <v>4190.159721593283</v>
       </c>
       <c r="S20" t="n">
-        <v>4132.373435040973</v>
+        <v>4132.373435040972</v>
       </c>
       <c r="T20" t="n">
-        <v>3965.714680867781</v>
+        <v>3965.71468086778</v>
       </c>
       <c r="U20" t="n">
         <v>3748.425293891414</v>
@@ -5797,7 +5797,7 @@
         <v>2799.679372356495</v>
       </c>
       <c r="Y20" t="n">
-        <v>2445.723833493966</v>
+        <v>2445.723833493965</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>176.417744151385</v>
       </c>
       <c r="H21" t="n">
-        <v>89.6168037290503</v>
+        <v>89.61680372905029</v>
       </c>
       <c r="I21" t="n">
-        <v>83.80319443186569</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J21" t="n">
-        <v>212.9644675853908</v>
+        <v>212.9644675853907</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4385800617439</v>
+        <v>288.4385800617445</v>
       </c>
       <c r="L21" t="n">
-        <v>736.685210795107</v>
+        <v>736.6852107951074</v>
       </c>
       <c r="M21" t="n">
         <v>1279.124754605519</v>
       </c>
       <c r="N21" t="n">
-        <v>1850.329703977102</v>
+        <v>1850.329703977103</v>
       </c>
       <c r="O21" t="n">
         <v>2350.650843508511</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2570.330081717591</v>
+        <v>842.7792397402567</v>
       </c>
       <c r="C22" t="n">
-        <v>2437.577691902966</v>
+        <v>710.0268499256317</v>
       </c>
       <c r="D22" t="n">
-        <v>2323.644845603912</v>
+        <v>596.0940036265779</v>
       </c>
       <c r="E22" t="n">
-        <v>2211.915545134801</v>
+        <v>484.3647031574667</v>
       </c>
       <c r="F22" t="n">
-        <v>2101.209390750172</v>
+        <v>373.6585487728383</v>
       </c>
       <c r="G22" t="n">
-        <v>1970.011613471091</v>
+        <v>242.4607714937574</v>
       </c>
       <c r="H22" t="n">
-        <v>1862.834568673086</v>
+        <v>135.283726695752</v>
       </c>
       <c r="I22" t="n">
-        <v>1811.354036409199</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J22" t="n">
-        <v>1914.201928052702</v>
+        <v>186.6510860753681</v>
       </c>
       <c r="K22" t="n">
-        <v>2190.235368321058</v>
+        <v>462.6845263437243</v>
       </c>
       <c r="L22" t="n">
-        <v>2511.231626871135</v>
+        <v>783.6807848937992</v>
       </c>
       <c r="M22" t="n">
-        <v>2940.210187560014</v>
+        <v>1212.659345582678</v>
       </c>
       <c r="N22" t="n">
-        <v>3365.266461679735</v>
+        <v>1637.7156197024</v>
       </c>
       <c r="O22" t="n">
-        <v>3744.565668470143</v>
+        <v>2017.014826492808</v>
       </c>
       <c r="P22" t="n">
-        <v>4050.71936686218</v>
+        <v>2323.168524884845</v>
       </c>
       <c r="Q22" t="n">
-        <v>4190.159721593284</v>
+        <v>2462.608879615949</v>
       </c>
       <c r="R22" t="n">
-        <v>4150.958355536945</v>
+        <v>2423.407513559609</v>
       </c>
       <c r="S22" t="n">
-        <v>4001.055058736182</v>
+        <v>2273.504216758847</v>
       </c>
       <c r="T22" t="n">
-        <v>3816.844919414186</v>
+        <v>2089.294077436851</v>
       </c>
       <c r="U22" t="n">
-        <v>3563.943369265816</v>
+        <v>1836.392527288481</v>
       </c>
       <c r="V22" t="n">
-        <v>3345.442674173211</v>
+        <v>1617.891832195877</v>
       </c>
       <c r="W22" t="n">
-        <v>3092.209297249532</v>
+        <v>1364.658455272198</v>
       </c>
       <c r="X22" t="n">
-        <v>2900.403539464797</v>
+        <v>1172.852697487463</v>
       </c>
       <c r="Y22" t="n">
-        <v>2715.794753434549</v>
+        <v>988.2439114572145</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1090.842697737564</v>
       </c>
       <c r="F23" t="n">
-        <v>716.0405860612386</v>
+        <v>716.0405860612387</v>
       </c>
       <c r="G23" t="n">
         <v>337.8681369759544</v>
@@ -5992,22 +5992,22 @@
         <v>332.2599140582015</v>
       </c>
       <c r="K23" t="n">
-        <v>755.3706492637036</v>
+        <v>755.3706492637039</v>
       </c>
       <c r="L23" t="n">
-        <v>1317.17869215457</v>
+        <v>1317.178692154571</v>
       </c>
       <c r="M23" t="n">
-        <v>1973.967826135661</v>
+        <v>1973.967826135662</v>
       </c>
       <c r="N23" t="n">
         <v>2645.998303335298</v>
       </c>
       <c r="O23" t="n">
-        <v>3267.242365166717</v>
+        <v>3267.242365166718</v>
       </c>
       <c r="P23" t="n">
-        <v>3762.958798091533</v>
+        <v>3762.958798091532</v>
       </c>
       <c r="Q23" t="n">
         <v>4087.048448004001</v>
@@ -6025,10 +6025,10 @@
         <v>3748.425293891413</v>
       </c>
       <c r="V23" t="n">
-        <v>3453.546199661125</v>
+        <v>3453.546199661124</v>
       </c>
       <c r="W23" t="n">
-        <v>3136.961337504293</v>
+        <v>3136.961337504292</v>
       </c>
       <c r="X23" t="n">
         <v>2799.679372356495</v>
@@ -6068,22 +6068,22 @@
         <v>83.80319443186566</v>
       </c>
       <c r="J24" t="n">
-        <v>83.80319443186566</v>
+        <v>212.9644675853908</v>
       </c>
       <c r="K24" t="n">
-        <v>382.715207481071</v>
+        <v>511.8764806345961</v>
       </c>
       <c r="L24" t="n">
-        <v>830.961838214434</v>
+        <v>960.1231113679592</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.401382024846</v>
+        <v>1397.227136815429</v>
       </c>
       <c r="N24" t="n">
-        <v>1944.60633139643</v>
+        <v>1968.432086187012</v>
       </c>
       <c r="O24" t="n">
-        <v>2350.650843508511</v>
+        <v>1968.432086187012</v>
       </c>
       <c r="P24" t="n">
         <v>2350.650843508511</v>
@@ -6147,22 +6147,22 @@
         <v>83.80319443186566</v>
       </c>
       <c r="J25" t="n">
-        <v>153.351207165872</v>
+        <v>186.6510860753681</v>
       </c>
       <c r="K25" t="n">
-        <v>384.8442179742556</v>
+        <v>462.6845263437244</v>
       </c>
       <c r="L25" t="n">
-        <v>783.680784893799</v>
+        <v>861.5210932632679</v>
       </c>
       <c r="M25" t="n">
-        <v>1212.659345582678</v>
+        <v>1290.499653952147</v>
       </c>
       <c r="N25" t="n">
-        <v>1637.7156197024</v>
+        <v>1715.555928071868</v>
       </c>
       <c r="O25" t="n">
-        <v>2017.014826492808</v>
+        <v>2094.855134862276</v>
       </c>
       <c r="P25" t="n">
         <v>2323.168524884845</v>
@@ -6220,58 +6220,58 @@
         <v>341.3182417488877</v>
       </c>
       <c r="H26" t="n">
-        <v>83.98829516259119</v>
+        <v>83.98829516259113</v>
       </c>
       <c r="I26" t="n">
-        <v>93.05823096814026</v>
+        <v>83.98829516259113</v>
       </c>
       <c r="J26" t="n">
-        <v>341.5149505944761</v>
+        <v>332.445014788927</v>
       </c>
       <c r="K26" t="n">
-        <v>764.6256857999782</v>
+        <v>755.5557499944291</v>
       </c>
       <c r="L26" t="n">
-        <v>1326.433728690845</v>
+        <v>1317.363792885296</v>
       </c>
       <c r="M26" t="n">
-        <v>1983.222862671936</v>
+        <v>1974.152926866387</v>
       </c>
       <c r="N26" t="n">
-        <v>2655.253339871573</v>
+        <v>2646.183404066024</v>
       </c>
       <c r="O26" t="n">
-        <v>3276.497401702993</v>
+        <v>3267.427465897444</v>
       </c>
       <c r="P26" t="n">
-        <v>3772.213834627809</v>
+        <v>3772.213834627806</v>
       </c>
       <c r="Q26" t="n">
-        <v>4096.303484540277</v>
+        <v>4096.303484540274</v>
       </c>
       <c r="R26" t="n">
-        <v>4199.414758129559</v>
+        <v>4199.414758129557</v>
       </c>
       <c r="S26" t="n">
-        <v>4138.36346753504</v>
+        <v>4175.0035883204</v>
       </c>
       <c r="T26" t="n">
-        <v>3968.43970931964</v>
+        <v>4005.079830105</v>
       </c>
       <c r="U26" t="n">
-        <v>3747.885318301066</v>
+        <v>3784.525439086425</v>
       </c>
       <c r="V26" t="n">
-        <v>3449.741220028569</v>
+        <v>3486.381340813929</v>
       </c>
       <c r="W26" t="n">
-        <v>3129.891353829529</v>
+        <v>3166.531474614888</v>
       </c>
       <c r="X26" t="n">
-        <v>2789.344384639523</v>
+        <v>2825.984505424883</v>
       </c>
       <c r="Y26" t="n">
-        <v>2432.123841734786</v>
+        <v>2468.763962520145</v>
       </c>
     </row>
     <row r="27">
@@ -6293,19 +6293,19 @@
         <v>459.1172979825193</v>
       </c>
       <c r="F27" t="n">
-        <v>312.5827400094043</v>
+        <v>312.5827400094042</v>
       </c>
       <c r="G27" t="n">
         <v>176.6028448821104</v>
       </c>
       <c r="H27" t="n">
-        <v>89.8019044597758</v>
+        <v>89.80190445977574</v>
       </c>
       <c r="I27" t="n">
-        <v>83.98829516259119</v>
+        <v>83.98829516259113</v>
       </c>
       <c r="J27" t="n">
-        <v>213.1495683161163</v>
+        <v>213.1495683161162</v>
       </c>
       <c r="K27" t="n">
         <v>512.0615813653217</v>
@@ -6317,16 +6317,16 @@
         <v>1502.747755909097</v>
       </c>
       <c r="N27" t="n">
-        <v>1827.3374258264</v>
+        <v>2073.95270528068</v>
       </c>
       <c r="O27" t="n">
-        <v>2327.658565357809</v>
+        <v>2350.835944239237</v>
       </c>
       <c r="P27" t="n">
-        <v>2327.658565357809</v>
+        <v>2350.835944239237</v>
       </c>
       <c r="Q27" t="n">
-        <v>2533.24248606115</v>
+        <v>2556.419864942578</v>
       </c>
       <c r="R27" t="n">
         <v>2556.419864942578</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>865.8193687664368</v>
+        <v>865.8193687664364</v>
       </c>
       <c r="C28" t="n">
-        <v>729.801974909604</v>
+        <v>729.8019749096036</v>
       </c>
       <c r="D28" t="n">
-        <v>612.6041245683424</v>
+        <v>612.6041245683419</v>
       </c>
       <c r="E28" t="n">
-        <v>497.6098200570234</v>
+        <v>497.6098200570229</v>
       </c>
       <c r="F28" t="n">
-        <v>383.6386616301872</v>
+        <v>383.6386616301867</v>
       </c>
       <c r="G28" t="n">
         <v>249.1758803088985</v>
       </c>
       <c r="H28" t="n">
-        <v>138.7338314686853</v>
+        <v>138.7338314686852</v>
       </c>
       <c r="I28" t="n">
-        <v>83.98829516259119</v>
+        <v>83.98829516259113</v>
       </c>
       <c r="J28" t="n">
-        <v>183.6361563443258</v>
+        <v>183.6361563443257</v>
       </c>
       <c r="K28" t="n">
-        <v>456.4695661509143</v>
+        <v>456.4695661509141</v>
       </c>
       <c r="L28" t="n">
-        <v>852.1061026086899</v>
+        <v>852.1061026086898</v>
       </c>
       <c r="M28" t="n">
         <v>1277.884632835801</v>
@@ -6408,13 +6408,13 @@
         <v>2515.034045022</v>
       </c>
       <c r="R28" t="n">
-        <v>2472.567674923453</v>
+        <v>2472.567674923452</v>
       </c>
       <c r="S28" t="n">
-        <v>2319.399374080483</v>
+        <v>2319.399374080482</v>
       </c>
       <c r="T28" t="n">
-        <v>2131.924230716279</v>
+        <v>2131.924230716278</v>
       </c>
       <c r="U28" t="n">
         <v>1875.757676525701</v>
@@ -6423,7 +6423,7 @@
         <v>1653.991977390888</v>
       </c>
       <c r="W28" t="n">
-        <v>1397.493596425002</v>
+        <v>1397.493596425001</v>
       </c>
       <c r="X28" t="n">
         <v>1202.422834598058</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2069.187754205464</v>
+        <v>2114.897810796372</v>
       </c>
       <c r="C29" t="n">
-        <v>1733.144026336126</v>
+        <v>1778.854082927034</v>
       </c>
       <c r="D29" t="n">
-        <v>1407.79711680045</v>
+        <v>1453.507173391358</v>
       </c>
       <c r="E29" t="n">
-        <v>1054.92765327328</v>
+        <v>1100.637709864188</v>
       </c>
       <c r="F29" t="n">
-        <v>676.8605375547465</v>
+        <v>722.5705941456545</v>
       </c>
       <c r="G29" t="n">
         <v>341.1331410181622</v>
       </c>
       <c r="H29" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186565</v>
       </c>
       <c r="I29" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186565</v>
       </c>
       <c r="J29" t="n">
         <v>332.2599140582015</v>
       </c>
       <c r="K29" t="n">
-        <v>755.3706492637043</v>
+        <v>755.3706492637036</v>
       </c>
       <c r="L29" t="n">
         <v>1317.178692154571</v>
       </c>
       <c r="M29" t="n">
-        <v>1973.967826135662</v>
+        <v>1973.967826135659</v>
       </c>
       <c r="N29" t="n">
-        <v>2645.998303335299</v>
+        <v>2645.998303335296</v>
       </c>
       <c r="O29" t="n">
-        <v>3267.242365166719</v>
+        <v>3267.242365166715</v>
       </c>
       <c r="P29" t="n">
-        <v>3762.958798091535</v>
+        <v>3762.958798091532</v>
       </c>
       <c r="Q29" t="n">
-        <v>4087.048448004003</v>
+        <v>4087.048448004</v>
       </c>
       <c r="R29" t="n">
-        <v>4190.159721593285</v>
+        <v>4190.159721593282</v>
       </c>
       <c r="S29" t="n">
-        <v>4129.108430998766</v>
+        <v>4129.108430998764</v>
       </c>
       <c r="T29" t="n">
-        <v>3959.184672783366</v>
+        <v>3959.184672783364</v>
       </c>
       <c r="U29" t="n">
-        <v>3738.630281764792</v>
+        <v>3738.630281764789</v>
       </c>
       <c r="V29" t="n">
-        <v>3440.486183492295</v>
+        <v>3486.196240083204</v>
       </c>
       <c r="W29" t="n">
-        <v>3120.636317293255</v>
+        <v>3166.346373884163</v>
       </c>
       <c r="X29" t="n">
-        <v>2780.089348103249</v>
+        <v>2825.799404694158</v>
       </c>
       <c r="Y29" t="n">
-        <v>2422.868805198512</v>
+        <v>2468.57886178942</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>312.3976392786788</v>
       </c>
       <c r="G30" t="n">
-        <v>176.417744151385</v>
+        <v>176.4177441513849</v>
       </c>
       <c r="H30" t="n">
-        <v>89.61680372905032</v>
+        <v>89.61680372905026</v>
       </c>
       <c r="I30" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186565</v>
       </c>
       <c r="J30" t="n">
-        <v>83.80319443186571</v>
+        <v>212.9644675853908</v>
       </c>
       <c r="K30" t="n">
-        <v>382.715207481071</v>
+        <v>511.8764806345961</v>
       </c>
       <c r="L30" t="n">
-        <v>830.961838214434</v>
+        <v>511.8764806345961</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.401382024846</v>
+        <v>1054.316024445008</v>
       </c>
       <c r="N30" t="n">
-        <v>1944.60633139643</v>
+        <v>1625.520973816592</v>
       </c>
       <c r="O30" t="n">
-        <v>1945.254707305585</v>
+        <v>1968.432086187012</v>
       </c>
       <c r="P30" t="n">
-        <v>2327.473464627084</v>
+        <v>2350.650843508511</v>
       </c>
       <c r="Q30" t="n">
-        <v>2533.057385330425</v>
+        <v>2556.234764211853</v>
       </c>
       <c r="R30" t="n">
         <v>2556.234764211853</v>
@@ -6609,16 +6609,16 @@
         <v>497.4247193262981</v>
       </c>
       <c r="F31" t="n">
-        <v>383.4535608994619</v>
+        <v>383.4535608994618</v>
       </c>
       <c r="G31" t="n">
-        <v>248.990779578173</v>
+        <v>248.9907795781731</v>
       </c>
       <c r="H31" t="n">
         <v>138.5487307379598</v>
       </c>
       <c r="I31" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186565</v>
       </c>
       <c r="J31" t="n">
         <v>183.4510556136002</v>
@@ -6627,19 +6627,19 @@
         <v>456.2844654201887</v>
       </c>
       <c r="L31" t="n">
-        <v>851.9210018779644</v>
+        <v>851.921001877964</v>
       </c>
       <c r="M31" t="n">
-        <v>1277.699532105076</v>
+        <v>1277.699532105075</v>
       </c>
       <c r="N31" t="n">
         <v>1699.555775763029</v>
       </c>
       <c r="O31" t="n">
-        <v>2075.65495209167</v>
+        <v>2075.654952091669</v>
       </c>
       <c r="P31" t="n">
-        <v>2378.608620021939</v>
+        <v>2378.608620021938</v>
       </c>
       <c r="Q31" t="n">
         <v>2514.848944291274</v>
@@ -6651,7 +6651,7 @@
         <v>2319.214273349757</v>
       </c>
       <c r="T31" t="n">
-        <v>2131.739129985553</v>
+        <v>2131.739129985554</v>
       </c>
       <c r="U31" t="n">
         <v>1875.572575794976</v>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2095.307786543126</v>
+        <v>2095.307786543125</v>
       </c>
       <c r="C32" t="n">
         <v>1762.529062715996</v>
@@ -6688,64 +6688,64 @@
         <v>1090.842697737565</v>
       </c>
       <c r="F32" t="n">
-        <v>716.040586061239</v>
+        <v>716.0405860612391</v>
       </c>
       <c r="G32" t="n">
-        <v>337.8681369759545</v>
+        <v>337.8681369759544</v>
       </c>
       <c r="H32" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186565</v>
       </c>
       <c r="I32" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186565</v>
       </c>
       <c r="J32" t="n">
         <v>332.2599140582015</v>
       </c>
       <c r="K32" t="n">
-        <v>755.3706492637043</v>
+        <v>755.3706492637036</v>
       </c>
       <c r="L32" t="n">
         <v>1317.178692154571</v>
       </c>
       <c r="M32" t="n">
-        <v>1973.967826135662</v>
+        <v>1973.967826135659</v>
       </c>
       <c r="N32" t="n">
-        <v>2645.998303335299</v>
+        <v>2645.998303335296</v>
       </c>
       <c r="O32" t="n">
-        <v>3267.242365166718</v>
+        <v>3267.242365166715</v>
       </c>
       <c r="P32" t="n">
-        <v>3762.958798091534</v>
+        <v>3762.958798091532</v>
       </c>
       <c r="Q32" t="n">
-        <v>4087.048448004003</v>
+        <v>4087.048448004</v>
       </c>
       <c r="R32" t="n">
-        <v>4190.159721593285</v>
+        <v>4190.159721593282</v>
       </c>
       <c r="S32" t="n">
-        <v>4132.373435040974</v>
+        <v>4132.373435040971</v>
       </c>
       <c r="T32" t="n">
-        <v>3965.714680867781</v>
+        <v>3965.714680867779</v>
       </c>
       <c r="U32" t="n">
-        <v>3748.425293891415</v>
+        <v>3748.425293891413</v>
       </c>
       <c r="V32" t="n">
-        <v>3453.546199661126</v>
+        <v>3453.546199661125</v>
       </c>
       <c r="W32" t="n">
-        <v>3136.961337504294</v>
+        <v>3136.961337504293</v>
       </c>
       <c r="X32" t="n">
-        <v>2799.679372356496</v>
+        <v>2799.679372356495</v>
       </c>
       <c r="Y32" t="n">
-        <v>2445.723833493966</v>
+        <v>2445.723833493965</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3976392786788</v>
       </c>
       <c r="G33" t="n">
-        <v>176.417744151385</v>
+        <v>176.4177441513849</v>
       </c>
       <c r="H33" t="n">
-        <v>89.61680372905032</v>
+        <v>89.61680372905026</v>
       </c>
       <c r="I33" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186565</v>
       </c>
       <c r="J33" t="n">
-        <v>107.6289492224482</v>
+        <v>212.9644675853908</v>
       </c>
       <c r="K33" t="n">
-        <v>406.5409622716535</v>
+        <v>511.8764806345961</v>
       </c>
       <c r="L33" t="n">
-        <v>854.7875930050166</v>
+        <v>960.1231113679592</v>
       </c>
       <c r="M33" t="n">
         <v>1397.227136815429</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>842.7792397402575</v>
+        <v>842.7792397402566</v>
       </c>
       <c r="C34" t="n">
-        <v>710.0268499256324</v>
+        <v>710.0268499256316</v>
       </c>
       <c r="D34" t="n">
-        <v>596.0940036265785</v>
+        <v>596.0940036265778</v>
       </c>
       <c r="E34" t="n">
-        <v>484.3647031574671</v>
+        <v>484.3647031574666</v>
       </c>
       <c r="F34" t="n">
-        <v>373.6585487728386</v>
+        <v>373.6585487728382</v>
       </c>
       <c r="G34" t="n">
-        <v>242.4607714937576</v>
+        <v>242.4607714937574</v>
       </c>
       <c r="H34" t="n">
-        <v>135.2837266957521</v>
+        <v>135.2837266957519</v>
       </c>
       <c r="I34" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186565</v>
       </c>
       <c r="J34" t="n">
-        <v>153.351207165872</v>
+        <v>186.6510860753681</v>
       </c>
       <c r="K34" t="n">
-        <v>429.3846474342282</v>
+        <v>462.6845263437244</v>
       </c>
       <c r="L34" t="n">
-        <v>828.2212143537715</v>
+        <v>861.5210932632679</v>
       </c>
       <c r="M34" t="n">
-        <v>1257.199775042651</v>
+        <v>1290.499653952147</v>
       </c>
       <c r="N34" t="n">
-        <v>1682.256049162372</v>
+        <v>1715.555928071868</v>
       </c>
       <c r="O34" t="n">
-        <v>2061.55525595278</v>
+        <v>2094.855134862276</v>
       </c>
       <c r="P34" t="n">
-        <v>2323.168524884847</v>
+        <v>2323.168524884845</v>
       </c>
       <c r="Q34" t="n">
-        <v>2462.608879615951</v>
+        <v>2462.608879615949</v>
       </c>
       <c r="R34" t="n">
-        <v>2423.407513559611</v>
+        <v>2423.407513559609</v>
       </c>
       <c r="S34" t="n">
-        <v>2273.504216758849</v>
+        <v>2273.504216758847</v>
       </c>
       <c r="T34" t="n">
-        <v>2089.294077436853</v>
+        <v>2089.294077436851</v>
       </c>
       <c r="U34" t="n">
-        <v>1836.392527288483</v>
+        <v>1836.392527288481</v>
       </c>
       <c r="V34" t="n">
-        <v>1617.891832195878</v>
+        <v>1617.891832195877</v>
       </c>
       <c r="W34" t="n">
-        <v>1364.658455272199</v>
+        <v>1364.658455272198</v>
       </c>
       <c r="X34" t="n">
-        <v>1172.852697487464</v>
+        <v>1172.852697487463</v>
       </c>
       <c r="Y34" t="n">
-        <v>988.2439114572154</v>
+        <v>988.2439114572144</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2095.307786543125</v>
       </c>
       <c r="C35" t="n">
-        <v>1762.529062715995</v>
+        <v>1762.529062715996</v>
       </c>
       <c r="D35" t="n">
         <v>1440.447157222527</v>
@@ -6928,7 +6928,7 @@
         <v>716.0405860612391</v>
       </c>
       <c r="G35" t="n">
-        <v>337.8681369759543</v>
+        <v>337.8681369759544</v>
       </c>
       <c r="H35" t="n">
         <v>83.80319443186566</v>
@@ -6937,25 +6937,25 @@
         <v>83.80319443186566</v>
       </c>
       <c r="J35" t="n">
-        <v>332.2599140582015</v>
+        <v>332.2599140582013</v>
       </c>
       <c r="K35" t="n">
-        <v>755.3706492637036</v>
+        <v>755.3706492637034</v>
       </c>
       <c r="L35" t="n">
-        <v>1317.178692154569</v>
+        <v>1317.17869215457</v>
       </c>
       <c r="M35" t="n">
-        <v>1973.96782613566</v>
+        <v>1973.967826135661</v>
       </c>
       <c r="N35" t="n">
-        <v>2645.998303335297</v>
+        <v>2645.998303335298</v>
       </c>
       <c r="O35" t="n">
-        <v>3267.242365166716</v>
+        <v>3267.242365166718</v>
       </c>
       <c r="P35" t="n">
-        <v>3762.958798091532</v>
+        <v>3762.958798091533</v>
       </c>
       <c r="Q35" t="n">
         <v>4087.048448004001</v>
@@ -7016,19 +7016,19 @@
         <v>83.80319443186566</v>
       </c>
       <c r="J36" t="n">
-        <v>83.80319443186566</v>
+        <v>212.9644675853908</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4385800617439</v>
+        <v>511.8764806345961</v>
       </c>
       <c r="L36" t="n">
-        <v>736.685210795107</v>
+        <v>960.1231113679592</v>
       </c>
       <c r="M36" t="n">
-        <v>1279.124754605519</v>
+        <v>1502.562655178371</v>
       </c>
       <c r="N36" t="n">
-        <v>1850.329703977102</v>
+        <v>2073.767604549955</v>
       </c>
       <c r="O36" t="n">
         <v>2350.650843508511</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>842.7792397402561</v>
+        <v>842.7792397402567</v>
       </c>
       <c r="C37" t="n">
-        <v>710.0268499256312</v>
+        <v>710.0268499256317</v>
       </c>
       <c r="D37" t="n">
-        <v>596.0940036265774</v>
+        <v>596.0940036265779</v>
       </c>
       <c r="E37" t="n">
-        <v>484.3647031574664</v>
+        <v>484.3647031574667</v>
       </c>
       <c r="F37" t="n">
-        <v>373.658548772838</v>
+        <v>373.6585487728383</v>
       </c>
       <c r="G37" t="n">
-        <v>242.4607714937572</v>
+        <v>242.4607714937574</v>
       </c>
       <c r="H37" t="n">
         <v>135.2837266957519</v>
@@ -7095,28 +7095,28 @@
         <v>83.80319443186566</v>
       </c>
       <c r="J37" t="n">
-        <v>186.6510860753682</v>
+        <v>186.6510860753681</v>
       </c>
       <c r="K37" t="n">
-        <v>462.6845263437246</v>
+        <v>462.6845263437244</v>
       </c>
       <c r="L37" t="n">
-        <v>861.5210932632681</v>
+        <v>861.5210932632679</v>
       </c>
       <c r="M37" t="n">
-        <v>1290.499653952147</v>
+        <v>1212.659345582678</v>
       </c>
       <c r="N37" t="n">
-        <v>1715.555928071869</v>
+        <v>1637.7156197024</v>
       </c>
       <c r="O37" t="n">
-        <v>2094.855134862277</v>
+        <v>2017.014826492808</v>
       </c>
       <c r="P37" t="n">
-        <v>2323.168524884844</v>
+        <v>2323.168524884845</v>
       </c>
       <c r="Q37" t="n">
-        <v>2462.608879615948</v>
+        <v>2462.608879615949</v>
       </c>
       <c r="R37" t="n">
         <v>2423.407513559609</v>
@@ -7131,16 +7131,16 @@
         <v>1836.392527288481</v>
       </c>
       <c r="V37" t="n">
-        <v>1617.891832195876</v>
+        <v>1617.891832195877</v>
       </c>
       <c r="W37" t="n">
-        <v>1364.658455272197</v>
+        <v>1364.658455272198</v>
       </c>
       <c r="X37" t="n">
-        <v>1172.852697487462</v>
+        <v>1172.852697487463</v>
       </c>
       <c r="Y37" t="n">
-        <v>988.2439114572138</v>
+        <v>988.2439114572145</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2095.307786543126</v>
+        <v>2095.307786543125</v>
       </c>
       <c r="C38" t="n">
         <v>1762.529062715996</v>
@@ -7165,49 +7165,49 @@
         <v>716.0405860612391</v>
       </c>
       <c r="G38" t="n">
-        <v>337.8681369759543</v>
+        <v>337.8681369759544</v>
       </c>
       <c r="H38" t="n">
-        <v>83.80319443186566</v>
+        <v>83.80319443186569</v>
       </c>
       <c r="I38" t="n">
-        <v>83.80319443186443</v>
+        <v>83.80319443186569</v>
       </c>
       <c r="J38" t="n">
-        <v>332.2599140582003</v>
+        <v>332.2599140582015</v>
       </c>
       <c r="K38" t="n">
-        <v>755.3706492637024</v>
+        <v>755.3706492637036</v>
       </c>
       <c r="L38" t="n">
-        <v>1317.178692154569</v>
+        <v>1317.17869215457</v>
       </c>
       <c r="M38" t="n">
-        <v>1973.96782613566</v>
+        <v>1973.967826135661</v>
       </c>
       <c r="N38" t="n">
-        <v>2645.998303335297</v>
+        <v>2645.998303335298</v>
       </c>
       <c r="O38" t="n">
-        <v>3267.242365166716</v>
+        <v>3267.242365166717</v>
       </c>
       <c r="P38" t="n">
         <v>3762.958798091533</v>
       </c>
       <c r="Q38" t="n">
-        <v>4087.048448004001</v>
+        <v>4087.048448004002</v>
       </c>
       <c r="R38" t="n">
-        <v>4190.159721593283</v>
+        <v>4190.159721593284</v>
       </c>
       <c r="S38" t="n">
-        <v>4132.373435040972</v>
+        <v>4132.373435040973</v>
       </c>
       <c r="T38" t="n">
-        <v>3965.71468086778</v>
+        <v>3965.714680867781</v>
       </c>
       <c r="U38" t="n">
-        <v>3748.425293891413</v>
+        <v>3748.425293891414</v>
       </c>
       <c r="V38" t="n">
         <v>3453.546199661125</v>
@@ -7244,37 +7244,37 @@
         <v>312.3976392786788</v>
       </c>
       <c r="G39" t="n">
-        <v>176.4177441513849</v>
+        <v>176.417744151385</v>
       </c>
       <c r="H39" t="n">
-        <v>89.61680372905028</v>
+        <v>89.6168037290503</v>
       </c>
       <c r="I39" t="n">
-        <v>83.80319443186566</v>
+        <v>83.80319443186569</v>
       </c>
       <c r="J39" t="n">
         <v>212.9644675853908</v>
       </c>
       <c r="K39" t="n">
-        <v>212.9644675853908</v>
+        <v>511.8764806345962</v>
       </c>
       <c r="L39" t="n">
-        <v>661.2110983187538</v>
+        <v>896.9059972840204</v>
       </c>
       <c r="M39" t="n">
-        <v>873.7286184025928</v>
+        <v>896.9059972840204</v>
       </c>
       <c r="N39" t="n">
-        <v>1444.933567774176</v>
+        <v>1468.110946655604</v>
       </c>
       <c r="O39" t="n">
-        <v>1945.254707305585</v>
+        <v>1968.432086187012</v>
       </c>
       <c r="P39" t="n">
-        <v>2327.473464627084</v>
+        <v>2350.650843508511</v>
       </c>
       <c r="Q39" t="n">
-        <v>2533.057385330425</v>
+        <v>2556.234764211853</v>
       </c>
       <c r="R39" t="n">
         <v>2556.234764211853</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2570.330081717591</v>
+        <v>842.7792397402565</v>
       </c>
       <c r="C40" t="n">
-        <v>2437.577691902966</v>
+        <v>710.0268499256315</v>
       </c>
       <c r="D40" t="n">
-        <v>2323.644845603912</v>
+        <v>596.0940036265778</v>
       </c>
       <c r="E40" t="n">
-        <v>2211.915545134801</v>
+        <v>484.3647031574666</v>
       </c>
       <c r="F40" t="n">
-        <v>2101.209390750173</v>
+        <v>373.6585487728382</v>
       </c>
       <c r="G40" t="n">
-        <v>1970.011613471092</v>
+        <v>242.4607714937574</v>
       </c>
       <c r="H40" t="n">
-        <v>1862.834568673086</v>
+        <v>135.2837266957519</v>
       </c>
       <c r="I40" t="n">
-        <v>1811.3540364092</v>
+        <v>83.80319443186569</v>
       </c>
       <c r="J40" t="n">
-        <v>1880.902049143207</v>
+        <v>186.6510860753682</v>
       </c>
       <c r="K40" t="n">
-        <v>2156.935489411563</v>
+        <v>384.8442179742555</v>
       </c>
       <c r="L40" t="n">
-        <v>2555.772056331107</v>
+        <v>783.680784893799</v>
       </c>
       <c r="M40" t="n">
-        <v>2984.750617019986</v>
+        <v>1212.659345582678</v>
       </c>
       <c r="N40" t="n">
-        <v>3409.806891139708</v>
+        <v>1637.7156197024</v>
       </c>
       <c r="O40" t="n">
-        <v>3789.106097930116</v>
+        <v>2017.014826492808</v>
       </c>
       <c r="P40" t="n">
-        <v>4050.719366862179</v>
+        <v>2323.168524884845</v>
       </c>
       <c r="Q40" t="n">
-        <v>4190.159721593283</v>
+        <v>2462.608879615949</v>
       </c>
       <c r="R40" t="n">
-        <v>4150.958355536944</v>
+        <v>2423.407513559609</v>
       </c>
       <c r="S40" t="n">
-        <v>4001.055058736181</v>
+        <v>2273.504216758847</v>
       </c>
       <c r="T40" t="n">
-        <v>3816.844919414185</v>
+        <v>2089.294077436851</v>
       </c>
       <c r="U40" t="n">
-        <v>3563.943369265815</v>
+        <v>1836.392527288481</v>
       </c>
       <c r="V40" t="n">
-        <v>3345.44267417321</v>
+        <v>1617.891832195876</v>
       </c>
       <c r="W40" t="n">
-        <v>3092.209297249532</v>
+        <v>1364.658455272198</v>
       </c>
       <c r="X40" t="n">
-        <v>2900.403539464797</v>
+        <v>1172.852697487462</v>
       </c>
       <c r="Y40" t="n">
-        <v>2715.794753434549</v>
+        <v>988.2439114572142</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2069.187754205464</v>
+        <v>2069.187754205463</v>
       </c>
       <c r="C41" t="n">
-        <v>1733.144026336126</v>
+        <v>1733.144026336125</v>
       </c>
       <c r="D41" t="n">
-        <v>1453.507173391358</v>
+        <v>1407.797116800449</v>
       </c>
       <c r="E41" t="n">
         <v>1100.637709864188</v>
@@ -7405,58 +7405,58 @@
         <v>341.1331410181622</v>
       </c>
       <c r="H41" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186569</v>
       </c>
       <c r="I41" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186569</v>
       </c>
       <c r="J41" t="n">
-        <v>332.2599140582015</v>
+        <v>332.2599140582012</v>
       </c>
       <c r="K41" t="n">
-        <v>755.3706492637036</v>
+        <v>755.3706492637033</v>
       </c>
       <c r="L41" t="n">
-        <v>1317.178692154571</v>
+        <v>1317.17869215457</v>
       </c>
       <c r="M41" t="n">
-        <v>1973.967826135662</v>
+        <v>1973.967826135661</v>
       </c>
       <c r="N41" t="n">
-        <v>2645.998303335299</v>
+        <v>2645.998303335298</v>
       </c>
       <c r="O41" t="n">
-        <v>3267.242365166719</v>
+        <v>3267.242365166717</v>
       </c>
       <c r="P41" t="n">
-        <v>3762.958798091535</v>
+        <v>3762.958798091533</v>
       </c>
       <c r="Q41" t="n">
-        <v>4087.048448004003</v>
+        <v>4087.048448004002</v>
       </c>
       <c r="R41" t="n">
-        <v>4190.159721593285</v>
+        <v>4190.159721593284</v>
       </c>
       <c r="S41" t="n">
-        <v>4129.108430998766</v>
+        <v>4129.108430998765</v>
       </c>
       <c r="T41" t="n">
-        <v>3959.184672783366</v>
+        <v>3959.184672783365</v>
       </c>
       <c r="U41" t="n">
-        <v>3738.630281764792</v>
+        <v>3738.630281764791</v>
       </c>
       <c r="V41" t="n">
-        <v>3440.486183492295</v>
+        <v>3440.486183492294</v>
       </c>
       <c r="W41" t="n">
-        <v>3120.636317293255</v>
+        <v>3120.636317293254</v>
       </c>
       <c r="X41" t="n">
-        <v>2780.089348103249</v>
+        <v>2780.089348103248</v>
       </c>
       <c r="Y41" t="n">
-        <v>2422.868805198512</v>
+        <v>2422.86880519851</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>176.417744151385</v>
       </c>
       <c r="H42" t="n">
-        <v>89.61680372905032</v>
+        <v>89.6168037290503</v>
       </c>
       <c r="I42" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186569</v>
       </c>
       <c r="J42" t="n">
-        <v>83.80319443186571</v>
+        <v>212.9644675853908</v>
       </c>
       <c r="K42" t="n">
-        <v>382.715207481071</v>
+        <v>511.8764806345962</v>
       </c>
       <c r="L42" t="n">
-        <v>830.961838214434</v>
+        <v>960.1231113679592</v>
       </c>
       <c r="M42" t="n">
-        <v>896.9059972840204</v>
+        <v>1502.562655178371</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.110946655604</v>
+        <v>2073.767604549955</v>
       </c>
       <c r="O42" t="n">
-        <v>1968.432086187012</v>
+        <v>2556.234764211853</v>
       </c>
       <c r="P42" t="n">
-        <v>2350.650843508511</v>
+        <v>2556.234764211853</v>
       </c>
       <c r="Q42" t="n">
         <v>2556.234764211853</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>865.6342680357111</v>
+        <v>865.6342680357114</v>
       </c>
       <c r="C43" t="n">
-        <v>729.6168741788783</v>
+        <v>729.6168741788787</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4190238376168</v>
+        <v>612.419023837617</v>
       </c>
       <c r="E43" t="n">
-        <v>497.4247193262979</v>
+        <v>497.424719326298</v>
       </c>
       <c r="F43" t="n">
-        <v>383.4535608994616</v>
+        <v>383.4535608994618</v>
       </c>
       <c r="G43" t="n">
-        <v>248.990779578173</v>
+        <v>248.9907795781731</v>
       </c>
       <c r="H43" t="n">
         <v>138.5487307379598</v>
       </c>
       <c r="I43" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186569</v>
       </c>
       <c r="J43" t="n">
         <v>183.4510556136003</v>
       </c>
       <c r="K43" t="n">
-        <v>456.2844654201889</v>
+        <v>456.2844654201887</v>
       </c>
       <c r="L43" t="n">
-        <v>851.9210018779645</v>
+        <v>851.9210018779642</v>
       </c>
       <c r="M43" t="n">
-        <v>1277.699532105076</v>
+        <v>1277.699532105075</v>
       </c>
       <c r="N43" t="n">
         <v>1699.555775763029</v>
@@ -7587,19 +7587,19 @@
         <v>2075.654952091669</v>
       </c>
       <c r="P43" t="n">
-        <v>2378.608620021939</v>
+        <v>2378.608620021938</v>
       </c>
       <c r="Q43" t="n">
-        <v>2514.848944291275</v>
+        <v>2514.848944291274</v>
       </c>
       <c r="R43" t="n">
-        <v>2472.382574192728</v>
+        <v>2472.382574192727</v>
       </c>
       <c r="S43" t="n">
-        <v>2319.214273349758</v>
+        <v>2319.214273349757</v>
       </c>
       <c r="T43" t="n">
-        <v>2131.739129985554</v>
+        <v>2131.739129985553</v>
       </c>
       <c r="U43" t="n">
         <v>1875.572575794976</v>
@@ -7636,16 +7636,16 @@
         <v>1100.637709864188</v>
       </c>
       <c r="F44" t="n">
-        <v>722.5705941456544</v>
+        <v>722.5705941456545</v>
       </c>
       <c r="G44" t="n">
         <v>341.1331410181622</v>
       </c>
       <c r="H44" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="I44" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J44" t="n">
         <v>332.2599140582015</v>
@@ -7654,43 +7654,43 @@
         <v>755.3706492637036</v>
       </c>
       <c r="L44" t="n">
-        <v>1317.178692154571</v>
+        <v>1317.178692154569</v>
       </c>
       <c r="M44" t="n">
-        <v>1973.967826135662</v>
+        <v>1973.96782613566</v>
       </c>
       <c r="N44" t="n">
-        <v>2645.998303335299</v>
+        <v>2645.998303335297</v>
       </c>
       <c r="O44" t="n">
-        <v>3267.242365166718</v>
+        <v>3267.242365166717</v>
       </c>
       <c r="P44" t="n">
-        <v>3762.958798091534</v>
+        <v>3762.958798091533</v>
       </c>
       <c r="Q44" t="n">
-        <v>4087.048448004003</v>
+        <v>4087.048448004001</v>
       </c>
       <c r="R44" t="n">
-        <v>4190.159721593285</v>
+        <v>4190.159721593283</v>
       </c>
       <c r="S44" t="n">
-        <v>4129.108430998766</v>
+        <v>4129.108430998765</v>
       </c>
       <c r="T44" t="n">
-        <v>3959.184672783366</v>
+        <v>3959.184672783364</v>
       </c>
       <c r="U44" t="n">
-        <v>3738.630281764792</v>
+        <v>3738.63028176479</v>
       </c>
       <c r="V44" t="n">
-        <v>3486.196240083203</v>
+        <v>3440.486183492294</v>
       </c>
       <c r="W44" t="n">
-        <v>3166.346373884163</v>
+        <v>3120.636317293253</v>
       </c>
       <c r="X44" t="n">
-        <v>2825.799404694157</v>
+        <v>2780.089348103248</v>
       </c>
       <c r="Y44" t="n">
         <v>2468.57886178942</v>
@@ -7718,31 +7718,31 @@
         <v>312.3976392786788</v>
       </c>
       <c r="G45" t="n">
-        <v>176.417744151385</v>
+        <v>176.4177441513849</v>
       </c>
       <c r="H45" t="n">
-        <v>89.61680372905032</v>
+        <v>89.61680372905028</v>
       </c>
       <c r="I45" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J45" t="n">
-        <v>83.80319443186571</v>
+        <v>212.9644675853908</v>
       </c>
       <c r="K45" t="n">
-        <v>382.715207481071</v>
+        <v>212.9644675853908</v>
       </c>
       <c r="L45" t="n">
-        <v>830.961838214434</v>
+        <v>661.2110983187538</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.401382024846</v>
+        <v>1203.650642129166</v>
       </c>
       <c r="N45" t="n">
-        <v>1944.60633139643</v>
+        <v>1774.855591500749</v>
       </c>
       <c r="O45" t="n">
-        <v>2174.016006890353</v>
+        <v>2275.176731032158</v>
       </c>
       <c r="P45" t="n">
         <v>2556.234764211853</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>865.6342680357125</v>
+        <v>865.6342680357113</v>
       </c>
       <c r="C46" t="n">
-        <v>729.6168741788797</v>
+        <v>729.6168741788786</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4190238376182</v>
+        <v>612.4190238376169</v>
       </c>
       <c r="E46" t="n">
-        <v>497.4247193262992</v>
+        <v>497.424719326298</v>
       </c>
       <c r="F46" t="n">
-        <v>383.453560899463</v>
+        <v>383.4535608994618</v>
       </c>
       <c r="G46" t="n">
-        <v>248.9907795781744</v>
+        <v>248.990779578173</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5487307379611</v>
+        <v>138.5487307379597</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80319443186571</v>
+        <v>83.80319443186566</v>
       </c>
       <c r="J46" t="n">
         <v>183.4510556136003</v>
       </c>
       <c r="K46" t="n">
-        <v>456.2844654201888</v>
+        <v>456.2844654201887</v>
       </c>
       <c r="L46" t="n">
-        <v>851.9210018779645</v>
+        <v>851.9210018779643</v>
       </c>
       <c r="M46" t="n">
         <v>1277.699532105076</v>
@@ -7821,37 +7821,37 @@
         <v>1699.555775763029</v>
       </c>
       <c r="O46" t="n">
-        <v>2075.65495209167</v>
+        <v>2075.654952091669</v>
       </c>
       <c r="P46" t="n">
-        <v>2378.608620021939</v>
+        <v>2378.608620021938</v>
       </c>
       <c r="Q46" t="n">
-        <v>2514.848944291275</v>
+        <v>2514.848944291274</v>
       </c>
       <c r="R46" t="n">
-        <v>2472.382574192728</v>
+        <v>2472.382574192727</v>
       </c>
       <c r="S46" t="n">
-        <v>2319.214273349758</v>
+        <v>2319.214273349757</v>
       </c>
       <c r="T46" t="n">
-        <v>2131.739129985554</v>
+        <v>2131.739129985553</v>
       </c>
       <c r="U46" t="n">
-        <v>1875.572575794976</v>
+        <v>1875.572575794975</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.806876660164</v>
+        <v>1653.806876660163</v>
       </c>
       <c r="W46" t="n">
-        <v>1397.308495694277</v>
+        <v>1397.308495694276</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.237733867334</v>
+        <v>1202.237733867333</v>
       </c>
       <c r="Y46" t="n">
-        <v>1014.363943794878</v>
+        <v>1014.363943794877</v>
       </c>
     </row>
   </sheetData>
@@ -9102,7 +9102,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140395</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>20.3526255899008</v>
       </c>
       <c r="K19" t="n">
         <v>106.7437663446525</v>
@@ -9339,10 +9339,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>90.01623052619209</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>83.84812743098189</v>
+        <v>83.84812743098018</v>
       </c>
       <c r="M22" t="n">
         <v>178.5096609094456</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>61.75343355680127</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
         <v>162.4747015415544</v>
@@ -9813,7 +9813,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>56.37998920346658</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -10524,7 +10524,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>90.016230526193</v>
+        <v>56.37998920346658</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10752,7 +10752,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>99.88308679887103</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -10761,7 +10761,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>56.37998920346558</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>28.11719223407775</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
@@ -10998,7 +10998,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>90.01623052618919</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>45.25295602499926</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>45.25295602499983</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>45.25295602499904</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>45.25295602499978</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>36.2737195775054</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>36.27371957750861</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>45.25295602499881</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>45.25295602500213</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>45.25295602499887</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>45.25295602500012</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>45.25295602499796</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>45.25295602500086</v>
       </c>
     </row>
     <row r="45">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>627718.3810838157</v>
+        <v>627718.3810838156</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>628254.441499731</v>
+        <v>628254.4414997309</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>627718.3810838157</v>
+        <v>627718.3810838155</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>629287.7598913159</v>
+        <v>629287.7598913158</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>627718.3810838157</v>
+        <v>627718.3810838156</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820107.0328032116</v>
+        <v>820107.0328032118</v>
       </c>
       <c r="C2" t="n">
-        <v>820476.4154416661</v>
+        <v>820476.4154416666</v>
       </c>
       <c r="D2" t="n">
-        <v>820476.4154416667</v>
+        <v>820476.4154416663</v>
       </c>
       <c r="E2" t="n">
+        <v>817439.6345646936</v>
+      </c>
+      <c r="F2" t="n">
+        <v>817439.6345646938</v>
+      </c>
+      <c r="G2" t="n">
+        <v>821041.7698642826</v>
+      </c>
+      <c r="H2" t="n">
+        <v>821041.7698642827</v>
+      </c>
+      <c r="I2" t="n">
+        <v>821041.7698642826</v>
+      </c>
+      <c r="J2" t="n">
+        <v>818154.381785914</v>
+      </c>
+      <c r="K2" t="n">
+        <v>817439.6345646925</v>
+      </c>
+      <c r="L2" t="n">
+        <v>821041.7698642826</v>
+      </c>
+      <c r="M2" t="n">
+        <v>821041.7698642827</v>
+      </c>
+      <c r="N2" t="n">
+        <v>821041.7698642826</v>
+      </c>
+      <c r="O2" t="n">
         <v>817439.6345646937</v>
       </c>
-      <c r="F2" t="n">
-        <v>817439.6345646936</v>
-      </c>
-      <c r="G2" t="n">
-        <v>821041.7698642827</v>
-      </c>
-      <c r="H2" t="n">
-        <v>821041.7698642828</v>
-      </c>
-      <c r="I2" t="n">
-        <v>821041.7698642827</v>
-      </c>
-      <c r="J2" t="n">
-        <v>818154.3817859142</v>
-      </c>
-      <c r="K2" t="n">
-        <v>817439.6345646937</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642828</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642825</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642828</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>817439.6345646938</v>
-      </c>
-      <c r="P2" t="n">
-        <v>817439.6345646946</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>315841.5953976293</v>
       </c>
       <c r="C3" t="n">
-        <v>3684.723681813213</v>
+        <v>3684.723681813265</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26377,34 +26377,34 @@
         <v>1089374.648641139</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>2585.883201428533</v>
+        <v>2585.883201428521</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>25284.8738549066</v>
+        <v>25284.87385490641</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5171.766402857025</v>
+        <v>5171.766402857145</v>
       </c>
       <c r="M3" t="n">
-        <v>259337.6027119658</v>
+        <v>259337.6027119659</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20899.91454143333</v>
+        <v>20899.91454143353</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>356013.7579013872</v>
       </c>
       <c r="D4" t="n">
-        <v>356013.7579013872</v>
+        <v>356013.7579013873</v>
       </c>
       <c r="E4" t="n">
         <v>47471.4264557204</v>
       </c>
       <c r="F4" t="n">
-        <v>47471.42645572036</v>
+        <v>47471.42645572042</v>
       </c>
       <c r="G4" t="n">
-        <v>49455.95901526151</v>
+        <v>49455.95901526154</v>
       </c>
       <c r="H4" t="n">
-        <v>49455.9590152615</v>
+        <v>49455.95901526154</v>
       </c>
       <c r="I4" t="n">
-        <v>49455.95901526153</v>
+        <v>49455.95901526154</v>
       </c>
       <c r="J4" t="n">
-        <v>47888.75764851533</v>
+        <v>47888.75764851519</v>
       </c>
       <c r="K4" t="n">
-        <v>47471.42645572036</v>
+        <v>47471.42645572021</v>
       </c>
       <c r="L4" t="n">
-        <v>49455.95901526147</v>
+        <v>49455.95901526143</v>
       </c>
       <c r="M4" t="n">
-        <v>49455.9590152616</v>
+        <v>49455.95901526154</v>
       </c>
       <c r="N4" t="n">
-        <v>49455.95901526153</v>
+        <v>49455.95901526155</v>
       </c>
       <c r="O4" t="n">
-        <v>47471.42645572036</v>
+        <v>47471.42645572034</v>
       </c>
       <c r="P4" t="n">
-        <v>47471.4264557204</v>
+        <v>47471.42645572037</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>41226.73635463382</v>
       </c>
       <c r="E5" t="n">
-        <v>94032.31355159575</v>
+        <v>94032.31355159574</v>
       </c>
       <c r="F5" t="n">
         <v>94032.31355159575</v>
       </c>
       <c r="G5" t="n">
-        <v>94304.05432017188</v>
+        <v>94304.05432017187</v>
       </c>
       <c r="H5" t="n">
-        <v>94304.05432017188</v>
+        <v>94304.05432017187</v>
       </c>
       <c r="I5" t="n">
         <v>94304.05432017187</v>
       </c>
       <c r="J5" t="n">
-        <v>94172.99010694714</v>
+        <v>94172.99010694709</v>
       </c>
       <c r="K5" t="n">
-        <v>94032.31355159577</v>
+        <v>94032.31355159573</v>
       </c>
       <c r="L5" t="n">
-        <v>94304.05432017188</v>
+        <v>94304.05432017185</v>
       </c>
       <c r="M5" t="n">
-        <v>94304.05432017188</v>
+        <v>94304.05432017187</v>
       </c>
       <c r="N5" t="n">
         <v>94304.05432017188</v>
       </c>
       <c r="O5" t="n">
-        <v>94032.31355159577</v>
+        <v>94032.31355159575</v>
       </c>
       <c r="P5" t="n">
-        <v>94032.31355159578</v>
+        <v>94032.31355159575</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106304.7039157731</v>
+        <v>106281.3354892466</v>
       </c>
       <c r="C6" t="n">
-        <v>419551.1975038319</v>
+        <v>419537.0636432669</v>
       </c>
       <c r="D6" t="n">
-        <v>423235.9211856457</v>
+        <v>423221.7873250797</v>
       </c>
       <c r="E6" t="n">
-        <v>-413438.7540837615</v>
+        <v>-413528.8074662514</v>
       </c>
       <c r="F6" t="n">
-        <v>675935.8945573774</v>
+        <v>675845.8411748878</v>
       </c>
       <c r="G6" t="n">
-        <v>674695.8733274208</v>
+        <v>674695.8733274207</v>
       </c>
       <c r="H6" t="n">
+        <v>677281.7565288494</v>
+      </c>
+      <c r="I6" t="n">
+        <v>677281.7565288491</v>
+      </c>
+      <c r="J6" t="n">
+        <v>650735.575473586</v>
+      </c>
+      <c r="K6" t="n">
+        <v>675845.8411748869</v>
+      </c>
+      <c r="L6" t="n">
+        <v>672109.9901259922</v>
+      </c>
+      <c r="M6" t="n">
+        <v>417944.1538168833</v>
+      </c>
+      <c r="N6" t="n">
         <v>677281.7565288492</v>
       </c>
-      <c r="I6" t="n">
-        <v>677281.7565288494</v>
-      </c>
-      <c r="J6" t="n">
-        <v>650807.7601755451</v>
-      </c>
-      <c r="K6" t="n">
-        <v>675935.8945573776</v>
-      </c>
-      <c r="L6" t="n">
-        <v>672109.9901259923</v>
-      </c>
-      <c r="M6" t="n">
-        <v>417944.1538168832</v>
-      </c>
-      <c r="N6" t="n">
-        <v>677281.7565288495</v>
-      </c>
       <c r="O6" t="n">
-        <v>655035.9800159443</v>
+        <v>654945.9266334543</v>
       </c>
       <c r="P6" t="n">
-        <v>675935.8945573784</v>
+        <v>675845.841174888</v>
       </c>
     </row>
   </sheetData>
@@ -26697,37 +26697,37 @@
         <v>32.58960118036342</v>
       </c>
       <c r="F2" t="n">
+        <v>32.58960118036346</v>
+      </c>
+      <c r="G2" t="n">
+        <v>35.82195518214911</v>
+      </c>
+      <c r="H2" t="n">
+        <v>35.82195518214911</v>
+      </c>
+      <c r="I2" t="n">
+        <v>35.82195518214911</v>
+      </c>
+      <c r="J2" t="n">
         <v>32.58960118036338</v>
       </c>
-      <c r="G2" t="n">
-        <v>35.82195518214905</v>
-      </c>
-      <c r="H2" t="n">
-        <v>35.82195518214905</v>
-      </c>
-      <c r="I2" t="n">
-        <v>35.8219551821491</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>32.58960118036334</v>
+      </c>
+      <c r="L2" t="n">
+        <v>35.82195518214912</v>
+      </c>
+      <c r="M2" t="n">
+        <v>35.82195518214912</v>
+      </c>
+      <c r="N2" t="n">
+        <v>35.82195518214913</v>
+      </c>
+      <c r="O2" t="n">
+        <v>32.58960118036336</v>
+      </c>
+      <c r="P2" t="n">
         <v>32.5896011803634</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32.58960118036339</v>
-      </c>
-      <c r="L2" t="n">
-        <v>35.821955182149</v>
-      </c>
-      <c r="M2" t="n">
-        <v>35.8219551821492</v>
-      </c>
-      <c r="N2" t="n">
-        <v>35.82195518214917</v>
-      </c>
-      <c r="O2" t="n">
-        <v>32.58960118036338</v>
-      </c>
-      <c r="P2" t="n">
-        <v>32.58960118036342</v>
       </c>
     </row>
     <row r="3">
@@ -26813,7 +26813,7 @@
         <v>1047.539930398321</v>
       </c>
       <c r="J4" t="n">
-        <v>1049.85368953239</v>
+        <v>1049.853689532389</v>
       </c>
       <c r="K4" t="n">
         <v>1047.539930398321</v>
@@ -26919,28 +26919,28 @@
         <v>32.58960118036342</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.552713678800501e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.232354001785666</v>
+        <v>3.232354001785652</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.35724717857771</v>
+        <v>29.35724717857769</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.464708003571282</v>
+        <v>6.464708003571431</v>
       </c>
       <c r="M2" t="n">
-        <v>1.918465386552271e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>326.1814319885848</v>
       </c>
       <c r="C3" t="n">
-        <v>3.225575971863577</v>
+        <v>3.225575971863634</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711778</v>
+        <v>6.876045741711096</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1040.663884656609</v>
+        <v>1040.66388465661</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-8.350209732297732e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27156,19 +27156,19 @@
         <v>32.58960118036342</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.232354001785666</v>
+        <v>3.232354001785652</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.35724717857771</v>
+        <v>29.35724717857769</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>365.4581575673387</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.0456339133427</v>
+        <v>330.6079205209855</v>
       </c>
       <c r="I2" t="n">
         <v>159.9226849201952</v>
@@ -27417,10 +27417,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.72420959127265</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P2" t="n">
-        <v>42.85425091140583</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q2" t="n">
         <v>80.70197082457096</v>
@@ -27460,13 +27460,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>168.6900369443039</v>
       </c>
       <c r="D3" t="n">
-        <v>142.8827789569959</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>153.0827938477581</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>136.6419193661031</v>
       </c>
       <c r="H3" t="n">
-        <v>105.4594865644317</v>
+        <v>100.8971999567888</v>
       </c>
       <c r="I3" t="n">
         <v>75.36649093292084</v>
@@ -27502,10 +27502,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>45.86114411426757</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R3" t="n">
-        <v>98.10043483287279</v>
+        <v>97.55661026924176</v>
       </c>
       <c r="S3" t="n">
         <v>158.6512997408977</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>201.2106985958346</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>359.6579576745768</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27639,13 +27639,13 @@
         <v>159.4227692713298</v>
       </c>
       <c r="J5" t="n">
-        <v>68.65190234826173</v>
+        <v>68.65190234826171</v>
       </c>
       <c r="K5" t="n">
         <v>51.64037691895487</v>
       </c>
       <c r="L5" t="n">
-        <v>26.78994699523966</v>
+        <v>26.78994699523963</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>79.30166562967011</v>
       </c>
       <c r="R5" t="n">
-        <v>137.3760801442249</v>
+        <v>132.401164090331</v>
       </c>
       <c r="S5" t="n">
         <v>178.8437391585118</v>
@@ -27697,13 +27697,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27718,10 +27718,10 @@
         <v>75.12761573123095</v>
       </c>
       <c r="J6" t="n">
-        <v>53.02048320348338</v>
+        <v>59.8965289451948</v>
       </c>
       <c r="K6" t="n">
-        <v>23.42844074719081</v>
+        <v>23.42844074719079</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27739,10 +27739,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>49.53779710789991</v>
+        <v>43.48137601860049</v>
       </c>
       <c r="R6" t="n">
-        <v>94.81208459311941</v>
+        <v>101.6881303348308</v>
       </c>
       <c r="S6" t="n">
         <v>158.5224288518331</v>
@@ -27751,10 +27751,10 @@
         <v>197.3088320880702</v>
       </c>
       <c r="U6" t="n">
-        <v>219.0187221400237</v>
+        <v>225.8947678817351</v>
       </c>
       <c r="V6" t="n">
-        <v>226.7441660601258</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27800,13 +27800,13 @@
         <v>84.99872798188125</v>
       </c>
       <c r="K7" t="n">
-        <v>59.99978994537918</v>
+        <v>59.99978994537916</v>
       </c>
       <c r="L7" t="n">
         <v>46.57119745853053</v>
       </c>
       <c r="M7" t="n">
-        <v>45.81160299249014</v>
+        <v>45.81160299249012</v>
       </c>
       <c r="N7" t="n">
         <v>36.78541061280318</v>
@@ -27815,7 +27815,7 @@
         <v>54.49555222612061</v>
       </c>
       <c r="P7" t="n">
-        <v>65.88487562446232</v>
+        <v>65.88487562446231</v>
       </c>
       <c r="Q7" t="n">
         <v>101.7645434274181</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>386.9052861261556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>325.9128341950639</v>
       </c>
       <c r="I8" t="n">
-        <v>159.4227692713298</v>
+        <v>164.3976853252236</v>
       </c>
       <c r="J8" t="n">
         <v>68.65190234826171</v>
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G9" t="n">
         <v>136.6349813347674</v>
@@ -27955,7 +27955,7 @@
         <v>75.12761573123095</v>
       </c>
       <c r="J9" t="n">
-        <v>59.8965289451948</v>
+        <v>53.84010785589537</v>
       </c>
       <c r="K9" t="n">
         <v>23.42844074719079</v>
@@ -27991,7 +27991,7 @@
         <v>225.8947678817351</v>
       </c>
       <c r="V9" t="n">
-        <v>225.9245414077138</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.6262746880049</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="C14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="D14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="E14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="F14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="G14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="H14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="I14" t="n">
         <v>14.24143860478739</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="T14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="U14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="V14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="W14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="X14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="C16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="D16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="E16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="F16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="G16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="H16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="I16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="J16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="K16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="L16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="M16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="N16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="O16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="P16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="R16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="S16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="T16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="U16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="V16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="W16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="X16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036346</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="C17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="D17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="E17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="F17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="G17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="H17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="I17" t="n">
         <v>14.24143860478739</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="T17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="U17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="V17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="W17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="X17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="C19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="D19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="E19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="F19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="G19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="H19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="I19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="J19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="K19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="L19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="M19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="N19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="O19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="P19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="R19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="S19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="T19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="U19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="V19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="W19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="X19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="C20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="D20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="E20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="F20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="G20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="H20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="I20" t="n">
-        <v>14.24143860478736</v>
+        <v>14.24143860478739</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="T20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="U20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="V20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="W20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="X20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="Y20" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="C22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="D22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="E22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="F22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="G22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="H22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="I22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="J22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="K22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="L22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="M22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="N22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="O22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="P22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="R22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="S22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="T22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="U22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="V22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="W22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="X22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.82195518214905</v>
+        <v>35.82195518214911</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="C23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="D23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="E23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="F23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="G23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="H23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="I23" t="n">
         <v>14.24143860478736</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="T23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="U23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="V23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="W23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="X23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="Y23" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="C25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="D25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="E25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="F25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="G25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="H25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="I25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="J25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="K25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="L25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="M25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="N25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="O25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="P25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="R25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="S25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="T25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="U25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="V25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="W25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="X25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.8219551821491</v>
+        <v>35.82195518214911</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="C26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="D26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="E26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="F26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="G26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="H26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="I26" t="n">
-        <v>23.4029899235238</v>
+        <v>14.24143860478736</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29316,7 +29316,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>9.161551318733643</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="T26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="U26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="V26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="W26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="X26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="C28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="D28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="E28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="F28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="G28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="H28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="I28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="J28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="K28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="L28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="M28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="N28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="O28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="P28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="R28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="S28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="T28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="U28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="V28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="W28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="X28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.5896011803634</v>
+        <v>32.58960118036338</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="C29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="D29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="E29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="F29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="G29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="H29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="I29" t="n">
         <v>14.24143860478736</v>
@@ -29544,7 +29544,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-2.387423592153937e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="T29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="U29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="V29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="W29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="X29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="Y29" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="C31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="D31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="E31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="F31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="G31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="H31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="I31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="J31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="K31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="L31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="M31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="N31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="O31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="P31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="R31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="S31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="T31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="U31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="V31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="W31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="X31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.58960118036339</v>
+        <v>32.58960118036334</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="C32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="D32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="E32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="F32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="G32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="H32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="I32" t="n">
         <v>14.24143860478736</v>
@@ -29781,7 +29781,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-2.387423592153937e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="T32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="U32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="V32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="W32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="X32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="C34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="D34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="E34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="F34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="G34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="H34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="I34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="J34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="K34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="L34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="M34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="N34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="O34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="P34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="R34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="S34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="T34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="U34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="V34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="W34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="X34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.821955182149</v>
+        <v>35.82195518214912</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="C35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="D35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="E35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="F35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="G35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="H35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="I35" t="n">
         <v>14.24143860478736</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="T35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="U35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="V35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="W35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="X35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="C37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="D37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="E37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="F37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="G37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="H37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="I37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="J37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="K37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="L37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="M37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="N37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="O37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="P37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="R37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="S37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="T37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="U37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="V37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="W37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="X37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.8219551821492</v>
+        <v>35.82195518214912</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="C38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="D38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="E38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="F38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="G38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="H38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="I38" t="n">
-        <v>14.24143860478614</v>
+        <v>14.24143860478736</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="T38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="U38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="V38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="W38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="X38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="C40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="D40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="E40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="F40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="G40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="H40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="I40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="J40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="K40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="L40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="M40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="N40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="O40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="P40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="R40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="S40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="T40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="U40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="V40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="W40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="X40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.82195518214917</v>
+        <v>35.82195518214913</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="C41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="D41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="E41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="F41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="G41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="H41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="I41" t="n">
         <v>14.24143860478736</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="T41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="U41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="V41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="W41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="X41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="C43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="D43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="E43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="F43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="G43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="H43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="I43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="J43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="K43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="L43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="M43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="N43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="O43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="P43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="R43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="S43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="T43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="U43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="V43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="W43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="X43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.58960118036338</v>
+        <v>32.58960118036336</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="C44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="D44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="E44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="F44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="G44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="H44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="I44" t="n">
         <v>14.24143860478736</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="T44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="U44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="V44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="W44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="X44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="Y44" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="C46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="D46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="E46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="F46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="G46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="H46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="I46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="J46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="K46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="L46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="M46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="N46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="O46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="P46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="R46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="S46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="T46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="U46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="V46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="W46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="X46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.58960118036342</v>
+        <v>32.5896011803634</v>
       </c>
     </row>
   </sheetData>
@@ -31296,10 +31296,10 @@
         <v>208.9764679747476</v>
       </c>
       <c r="M5" t="n">
-        <v>232.5265860765229</v>
+        <v>232.526586076523</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2891093383023</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O5" t="n">
         <v>223.1211055778734</v>
@@ -31311,13 +31311,13 @@
         <v>143.0040242447794</v>
       </c>
       <c r="R5" t="n">
-        <v>83.18437372380107</v>
+        <v>83.18437372380109</v>
       </c>
       <c r="S5" t="n">
-        <v>30.17633042773354</v>
+        <v>30.17633042773355</v>
       </c>
       <c r="T5" t="n">
-        <v>5.796901215464773</v>
+        <v>5.796901215464774</v>
       </c>
       <c r="U5" t="n">
         <v>0.1059399422586366</v>
@@ -31360,13 +31360,13 @@
         <v>0.7085358284432286</v>
       </c>
       <c r="H6" t="n">
-        <v>6.842964448385919</v>
+        <v>6.84296444838592</v>
       </c>
       <c r="I6" t="n">
         <v>24.39476426876906</v>
       </c>
       <c r="J6" t="n">
-        <v>66.94109772147188</v>
+        <v>66.94109772147189</v>
       </c>
       <c r="K6" t="n">
         <v>114.4129982271682</v>
@@ -31378,10 +31378,10 @@
         <v>149.0100796637298</v>
       </c>
       <c r="N6" t="n">
-        <v>138.2177578250447</v>
+        <v>136.6150781095766</v>
       </c>
       <c r="O6" t="n">
-        <v>147.8696104706877</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
         <v>135.2992670998302</v>
@@ -31390,7 +31390,7 @@
         <v>90.44397697812161</v>
       </c>
       <c r="R6" t="n">
-        <v>43.9913736291331</v>
+        <v>43.99137362913311</v>
       </c>
       <c r="S6" t="n">
         <v>13.1607422520047</v>
@@ -31439,22 +31439,22 @@
         <v>0.5940126373057265</v>
       </c>
       <c r="H7" t="n">
-        <v>5.281312357136372</v>
+        <v>5.281312357136373</v>
       </c>
       <c r="I7" t="n">
         <v>17.86358003824858</v>
       </c>
       <c r="J7" t="n">
-        <v>41.99669345751486</v>
+        <v>41.99669345751487</v>
       </c>
       <c r="K7" t="n">
-        <v>69.0134682251562</v>
+        <v>69.01346822515622</v>
       </c>
       <c r="L7" t="n">
         <v>88.31347882270775</v>
       </c>
       <c r="M7" t="n">
-        <v>93.11418095511492</v>
+        <v>93.11418095511493</v>
       </c>
       <c r="N7" t="n">
         <v>90.90013385243002</v>
@@ -31463,7 +31463,7 @@
         <v>83.96098622572218</v>
       </c>
       <c r="P7" t="n">
-        <v>71.84312842468529</v>
+        <v>71.8431284246853</v>
       </c>
       <c r="Q7" t="n">
         <v>49.7404582020277</v>
@@ -31840,7 +31840,7 @@
         <v>93.76690679578722</v>
       </c>
       <c r="J12" t="n">
-        <v>170.036394533494</v>
+        <v>257.3035591449748</v>
       </c>
       <c r="K12" t="n">
         <v>439.7727652866876</v>
@@ -31849,22 +31849,22 @@
         <v>591.3287542580185</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>690.0527650436466</v>
       </c>
       <c r="N12" t="n">
         <v>708.3164084182657</v>
       </c>
       <c r="O12" t="n">
-        <v>647.9711328600087</v>
+        <v>629.9368097594936</v>
       </c>
       <c r="P12" t="n">
-        <v>520.0539602643291</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>347.6423000489925</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>169.0909977835878</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>50.58635035416032</v>
@@ -32077,28 +32077,28 @@
         <v>93.76690679578722</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>257.3035591449748</v>
       </c>
       <c r="K15" t="n">
         <v>439.7727652866876</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>591.3287542580185</v>
       </c>
       <c r="M15" t="n">
         <v>690.0527650436466</v>
       </c>
       <c r="N15" t="n">
-        <v>656.3708196416089</v>
+        <v>708.3164084182657</v>
       </c>
       <c r="O15" t="n">
-        <v>647.9711328600087</v>
+        <v>606.5253159398699</v>
       </c>
       <c r="P15" t="n">
-        <v>520.0539602643291</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>347.6423000489925</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>169.0909977835878</v>
@@ -32314,7 +32314,7 @@
         <v>93.76690679578722</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>257.3035591449748</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
@@ -32332,10 +32332,10 @@
         <v>647.9711328600087</v>
       </c>
       <c r="P18" t="n">
-        <v>520.0539602643291</v>
+        <v>417.8714106261434</v>
       </c>
       <c r="Q18" t="n">
-        <v>168.2651569261442</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.090057738554396</v>
+        <v>5.090057738554395</v>
       </c>
       <c r="H20" t="n">
         <v>52.12855381497022</v>
@@ -32472,31 +32472,31 @@
         <v>196.2344509656185</v>
       </c>
       <c r="J20" t="n">
-        <v>432.0122879876316</v>
+        <v>432.0122879876315</v>
       </c>
       <c r="K20" t="n">
-        <v>647.4744320606393</v>
+        <v>647.4744320606392</v>
       </c>
       <c r="L20" t="n">
-        <v>803.2492865769236</v>
+        <v>803.2492865769234</v>
       </c>
       <c r="M20" t="n">
-        <v>893.7696008849402</v>
+        <v>893.7696008849401</v>
       </c>
       <c r="N20" t="n">
-        <v>908.231727434608</v>
+        <v>908.2317274346078</v>
       </c>
       <c r="O20" t="n">
-        <v>857.6174657968577</v>
+        <v>857.6174657968576</v>
       </c>
       <c r="P20" t="n">
-        <v>731.956665376296</v>
+        <v>731.9566653762957</v>
       </c>
       <c r="Q20" t="n">
-        <v>549.6689726143164</v>
+        <v>549.6689726143163</v>
       </c>
       <c r="R20" t="n">
-        <v>319.7383394194679</v>
+        <v>319.7383394194678</v>
       </c>
       <c r="S20" t="n">
         <v>115.9896907173084</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.723420987189744</v>
+        <v>2.723420987189743</v>
       </c>
       <c r="H21" t="n">
-        <v>26.30251321838516</v>
+        <v>26.30251321838515</v>
       </c>
       <c r="I21" t="n">
-        <v>93.76690679578724</v>
+        <v>93.76690679578722</v>
       </c>
       <c r="J21" t="n">
-        <v>257.3035591449749</v>
+        <v>257.3035591449748</v>
       </c>
       <c r="K21" t="n">
-        <v>214.0779162232005</v>
+        <v>214.0779162232012</v>
       </c>
       <c r="L21" t="n">
-        <v>591.3287542580186</v>
+        <v>591.3287542580185</v>
       </c>
       <c r="M21" t="n">
-        <v>690.0527650436468</v>
+        <v>690.0527650436466</v>
       </c>
       <c r="N21" t="n">
-        <v>708.3164084182658</v>
+        <v>708.3164084182657</v>
       </c>
       <c r="O21" t="n">
-        <v>647.9711328600088</v>
+        <v>647.9711328600087</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>50.58635035416033</v>
+        <v>50.58635035416032</v>
       </c>
       <c r="T21" t="n">
         <v>10.97729775099725</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1791724333677464</v>
+        <v>0.1791724333677463</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>20.29994297526506</v>
       </c>
       <c r="I22" t="n">
-        <v>68.66279280386176</v>
+        <v>68.66279280386175</v>
       </c>
       <c r="J22" t="n">
         <v>161.4239841703847</v>
@@ -32639,16 +32639,16 @@
         <v>339.4532386681847</v>
       </c>
       <c r="M22" t="n">
-        <v>357.9058453195247</v>
+        <v>357.9058453195246</v>
       </c>
       <c r="N22" t="n">
         <v>349.3956442767247</v>
       </c>
       <c r="O22" t="n">
-        <v>322.723428813314</v>
+        <v>322.7234288133139</v>
       </c>
       <c r="P22" t="n">
-        <v>276.1456455449142</v>
+        <v>276.1456455449141</v>
       </c>
       <c r="Q22" t="n">
         <v>191.1889312322764</v>
@@ -32657,10 +32657,10 @@
         <v>102.6620837992443</v>
       </c>
       <c r="S22" t="n">
-        <v>39.79037902206859</v>
+        <v>39.79037902206858</v>
       </c>
       <c r="T22" t="n">
-        <v>9.755596317356412</v>
+        <v>9.75559631735641</v>
       </c>
       <c r="U22" t="n">
         <v>0.1245395274556139</v>
@@ -32788,7 +32788,7 @@
         <v>93.76690679578724</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>257.3035591449749</v>
       </c>
       <c r="K24" t="n">
         <v>439.7727652866877</v>
@@ -32797,16 +32797,16 @@
         <v>591.3287542580186</v>
       </c>
       <c r="M24" t="n">
-        <v>690.0527650436468</v>
+        <v>583.6532515457251</v>
       </c>
       <c r="N24" t="n">
         <v>708.3164084182658</v>
       </c>
       <c r="O24" t="n">
-        <v>552.7422162748298</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>520.0539602643292</v>
       </c>
       <c r="Q24" t="n">
         <v>347.6423000489925</v>
@@ -33037,10 +33037,10 @@
         <v>690.0527650436468</v>
       </c>
       <c r="N27" t="n">
-        <v>459.2100655351549</v>
+        <v>708.3164084182658</v>
       </c>
       <c r="O27" t="n">
-        <v>647.9711328600088</v>
+        <v>422.2762837965216</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>347.6423000489925</v>
       </c>
       <c r="R27" t="n">
-        <v>169.0909977835878</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>50.58635035416033</v>
@@ -33262,13 +33262,13 @@
         <v>93.76690679578724</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>257.3035591449749</v>
       </c>
       <c r="K30" t="n">
         <v>439.7727652866877</v>
       </c>
       <c r="L30" t="n">
-        <v>591.3287542580186</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>690.0527650436468</v>
@@ -33277,7 +33277,7 @@
         <v>708.3164084182658</v>
       </c>
       <c r="O30" t="n">
-        <v>143.2511696052071</v>
+        <v>488.971105424667</v>
       </c>
       <c r="P30" t="n">
         <v>520.0539602643292</v>
@@ -33286,7 +33286,7 @@
         <v>347.6423000489925</v>
       </c>
       <c r="R30" t="n">
-        <v>169.0909977835878</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>50.58635035416033</v>
@@ -33499,7 +33499,7 @@
         <v>93.76690679578724</v>
       </c>
       <c r="J33" t="n">
-        <v>150.904045647053</v>
+        <v>257.3035591449749</v>
       </c>
       <c r="K33" t="n">
         <v>439.7727652866877</v>
@@ -33508,7 +33508,7 @@
         <v>591.3287542580186</v>
       </c>
       <c r="M33" t="n">
-        <v>690.0527650436468</v>
+        <v>583.6532515457251</v>
       </c>
       <c r="N33" t="n">
         <v>708.3164084182658</v>
@@ -33736,10 +33736,10 @@
         <v>93.76690679578724</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>257.3035591449749</v>
       </c>
       <c r="K36" t="n">
-        <v>344.5438487015088</v>
+        <v>439.7727652866877</v>
       </c>
       <c r="L36" t="n">
         <v>591.3287542580186</v>
@@ -33751,7 +33751,7 @@
         <v>708.3164084182658</v>
       </c>
       <c r="O36" t="n">
-        <v>647.9711328600088</v>
+        <v>422.2762837965216</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33900,7 +33900,7 @@
         <v>647.4744320606393</v>
       </c>
       <c r="L38" t="n">
-        <v>803.2492865769236</v>
+        <v>803.2492865769234</v>
       </c>
       <c r="M38" t="n">
         <v>893.7696008849402</v>
@@ -33976,13 +33976,13 @@
         <v>257.3035591449749</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>439.7727652866877</v>
       </c>
       <c r="L39" t="n">
-        <v>591.3287542580186</v>
+        <v>527.4730834661613</v>
       </c>
       <c r="M39" t="n">
-        <v>356.7981956228658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>708.3164084182658</v>
@@ -33997,7 +33997,7 @@
         <v>347.6423000489925</v>
       </c>
       <c r="R39" t="n">
-        <v>169.0909977835878</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>50.58635035416033</v>
@@ -34210,7 +34210,7 @@
         <v>93.76690679578724</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>257.3035591449749</v>
       </c>
       <c r="K42" t="n">
         <v>439.7727652866877</v>
@@ -34219,19 +34219,19 @@
         <v>591.3287542580186</v>
       </c>
       <c r="M42" t="n">
-        <v>208.7442956084692</v>
+        <v>690.0527650436468</v>
       </c>
       <c r="N42" t="n">
         <v>708.3164084182658</v>
       </c>
       <c r="O42" t="n">
-        <v>647.9711328600088</v>
+        <v>629.9368097594927</v>
       </c>
       <c r="P42" t="n">
-        <v>520.0539602643292</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>347.6423000489925</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34447,10 +34447,10 @@
         <v>93.76690679578724</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>257.3035591449749</v>
       </c>
       <c r="K45" t="n">
-        <v>439.7727652866877</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>591.3287542580186</v>
@@ -34462,10 +34462,10 @@
         <v>708.3164084182658</v>
       </c>
       <c r="O45" t="n">
-        <v>374.3231893878017</v>
+        <v>647.9711328600088</v>
       </c>
       <c r="P45" t="n">
-        <v>520.0539602643292</v>
+        <v>417.871410626143</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34677,7 +34677,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.1852657963311763</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -34692,7 +34692,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>4.562286607642875</v>
       </c>
       <c r="O2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1852657963311763</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34917,7 +34917,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4.974916053893835</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.180352849250198</v>
+        <v>2.180352849250227</v>
       </c>
       <c r="N5" t="n">
         <v>6.876045741711437</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>4.974916053893864</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35026,10 +35026,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N6" t="n">
+        <v>5.273366026243323</v>
+      </c>
+      <c r="O6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5.273366026243323</v>
       </c>
       <c r="P6" t="n">
         <v>1.324859685499973</v>
@@ -35157,19 +35157,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>4.974916053893835</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>43.19876786682729</v>
+        <v>130.4659324783081</v>
       </c>
       <c r="K12" t="n">
         <v>301.9313263123286</v>
@@ -35497,22 +35497,22 @@
         <v>452.7743744781444</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>547.9187311216283</v>
       </c>
       <c r="N12" t="n">
         <v>576.9746963349324</v>
       </c>
       <c r="O12" t="n">
-        <v>505.3748884155642</v>
+        <v>487.3405653150492</v>
       </c>
       <c r="P12" t="n">
-        <v>386.0795528499989</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>207.660525962971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.41149381962384</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>130.4659324783081</v>
       </c>
       <c r="K15" t="n">
         <v>301.9313263123286</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>452.7743744781444</v>
       </c>
       <c r="M15" t="n">
         <v>547.9187311216283</v>
       </c>
       <c r="N15" t="n">
-        <v>525.0291075582757</v>
+        <v>576.9746963349324</v>
       </c>
       <c r="O15" t="n">
-        <v>505.3748884155642</v>
+        <v>463.9290714954254</v>
       </c>
       <c r="P15" t="n">
-        <v>386.0795528499989</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>207.660525962971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>23.41149381962384</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>100.6544052340753</v>
+        <v>100.6544052340754</v>
       </c>
       <c r="K16" t="n">
-        <v>275.5893028349378</v>
+        <v>275.5893028349379</v>
       </c>
       <c r="L16" t="n">
-        <v>399.6328651088642</v>
+        <v>399.6328651088643</v>
       </c>
       <c r="M16" t="n">
-        <v>430.0793234617286</v>
+        <v>430.0793234617287</v>
       </c>
       <c r="N16" t="n">
         <v>426.1174178363167</v>
       </c>
       <c r="O16" t="n">
-        <v>379.898157907717</v>
+        <v>379.8981579077171</v>
       </c>
       <c r="P16" t="n">
-        <v>306.013805990171</v>
+        <v>306.0138059901695</v>
       </c>
       <c r="Q16" t="n">
-        <v>137.6164891609454</v>
+        <v>137.6164891609455</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>130.4659324783081</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>505.3748884155642</v>
       </c>
       <c r="P18" t="n">
-        <v>386.0795528499989</v>
+        <v>283.8970032118132</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.28338284012266</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>70.25051791313763</v>
+        <v>90.6031435030385</v>
       </c>
       <c r="K19" t="n">
-        <v>278.8216568367234</v>
+        <v>278.8216568367235</v>
       </c>
       <c r="L19" t="n">
-        <v>402.8652191106498</v>
+        <v>402.8652191106499</v>
       </c>
       <c r="M19" t="n">
         <v>433.3116774635143</v>
@@ -36059,10 +36059,10 @@
         <v>383.1305119095027</v>
       </c>
       <c r="P19" t="n">
-        <v>264.2558272041077</v>
+        <v>309.2461599919567</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.8488431627311</v>
+        <v>75.50588478497968</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>250.9663834609453</v>
+        <v>250.9663834609452</v>
       </c>
       <c r="K20" t="n">
-        <v>427.3845810156587</v>
+        <v>427.3845810156586</v>
       </c>
       <c r="L20" t="n">
-        <v>567.4828716069364</v>
+        <v>567.4828716069362</v>
       </c>
       <c r="M20" t="n">
-        <v>663.4233676576675</v>
+        <v>663.4233676576674</v>
       </c>
       <c r="N20" t="n">
-        <v>678.8186638380171</v>
+        <v>678.8186638380168</v>
       </c>
       <c r="O20" t="n">
-        <v>627.5192543751709</v>
+        <v>627.5192543751708</v>
       </c>
       <c r="P20" t="n">
-        <v>500.7236696210264</v>
+        <v>500.7236696210262</v>
       </c>
       <c r="Q20" t="n">
-        <v>327.3632827398669</v>
+        <v>327.3632827398668</v>
       </c>
       <c r="R20" t="n">
-        <v>104.1528016053358</v>
+        <v>104.1528016053357</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>130.4659324783082</v>
+        <v>130.4659324783081</v>
       </c>
       <c r="K21" t="n">
-        <v>76.23647724884154</v>
+        <v>76.23647724884223</v>
       </c>
       <c r="L21" t="n">
-        <v>452.7743744781445</v>
+        <v>452.7743744781444</v>
       </c>
       <c r="M21" t="n">
-        <v>547.9187311216285</v>
+        <v>547.9187311216283</v>
       </c>
       <c r="N21" t="n">
-        <v>576.9746963349326</v>
+        <v>576.9746963349324</v>
       </c>
       <c r="O21" t="n">
-        <v>505.3748884155643</v>
+        <v>505.3748884155642</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>278.8216568367235</v>
       </c>
       <c r="L22" t="n">
-        <v>324.2386450000774</v>
+        <v>324.2386450000757</v>
       </c>
       <c r="M22" t="n">
         <v>433.3116774635143</v>
@@ -36299,7 +36299,7 @@
         <v>309.2461599919567</v>
       </c>
       <c r="Q22" t="n">
-        <v>140.8488431627311</v>
+        <v>140.8488431627312</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>130.4659324783082</v>
       </c>
       <c r="K24" t="n">
         <v>301.9313263123287</v>
@@ -36445,16 +36445,16 @@
         <v>452.7743744781445</v>
       </c>
       <c r="M24" t="n">
-        <v>547.9187311216285</v>
+        <v>441.5192176237068</v>
       </c>
       <c r="N24" t="n">
         <v>576.9746963349326</v>
       </c>
       <c r="O24" t="n">
-        <v>410.1459718303853</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>386.079552849999</v>
       </c>
       <c r="Q24" t="n">
         <v>207.660525962971</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.25051791313771</v>
+        <v>103.8867592358611</v>
       </c>
       <c r="K25" t="n">
-        <v>233.8313240488723</v>
+        <v>278.8216568367236</v>
       </c>
       <c r="L25" t="n">
         <v>402.8652191106499</v>
@@ -36533,7 +36533,7 @@
         <v>383.1305119095028</v>
       </c>
       <c r="P25" t="n">
-        <v>309.2461599919568</v>
+        <v>230.6195858813823</v>
       </c>
       <c r="Q25" t="n">
         <v>140.8488431627312</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.161551318736443</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>250.9663834609453</v>
@@ -36612,7 +36612,7 @@
         <v>627.5192543751709</v>
       </c>
       <c r="P26" t="n">
-        <v>500.7236696210264</v>
+        <v>509.8852209397601</v>
       </c>
       <c r="Q26" t="n">
         <v>327.3632827398669</v>
@@ -36685,10 +36685,10 @@
         <v>547.9187311216285</v>
       </c>
       <c r="N27" t="n">
-        <v>327.8683534518216</v>
+        <v>576.9746963349326</v>
       </c>
       <c r="O27" t="n">
-        <v>505.3748884155643</v>
+        <v>279.6800393520771</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>207.660525962971</v>
       </c>
       <c r="R27" t="n">
-        <v>23.41149381962387</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>100.6544052340753</v>
       </c>
       <c r="K28" t="n">
-        <v>275.5893028349379</v>
+        <v>275.5893028349378</v>
       </c>
       <c r="L28" t="n">
         <v>399.6328651088643</v>
@@ -36773,7 +36773,7 @@
         <v>306.0138059901711</v>
       </c>
       <c r="Q28" t="n">
-        <v>137.6164891609455</v>
+        <v>137.6164891609454</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>567.4828716069364</v>
       </c>
       <c r="M29" t="n">
-        <v>663.4233676576675</v>
+        <v>663.4233676576652</v>
       </c>
       <c r="N29" t="n">
         <v>678.8186638380171</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>130.4659324783082</v>
       </c>
       <c r="K30" t="n">
         <v>301.9313263123287</v>
       </c>
       <c r="L30" t="n">
-        <v>452.7743744781445</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>547.9187311216285</v>
@@ -36925,7 +36925,7 @@
         <v>576.9746963349326</v>
       </c>
       <c r="O30" t="n">
-        <v>0.654925160762619</v>
+        <v>346.3748609802226</v>
       </c>
       <c r="P30" t="n">
         <v>386.079552849999</v>
@@ -36934,7 +36934,7 @@
         <v>207.660525962971</v>
       </c>
       <c r="R30" t="n">
-        <v>23.41149381962387</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,19 +36995,19 @@
         <v>275.5893028349378</v>
       </c>
       <c r="L31" t="n">
-        <v>399.6328651088643</v>
+        <v>399.6328651088642</v>
       </c>
       <c r="M31" t="n">
-        <v>430.0793234617287</v>
+        <v>430.0793234617286</v>
       </c>
       <c r="N31" t="n">
-        <v>426.1174178363167</v>
+        <v>426.1174178363166</v>
       </c>
       <c r="O31" t="n">
-        <v>379.8981579077171</v>
+        <v>379.898157907717</v>
       </c>
       <c r="P31" t="n">
-        <v>306.0138059901711</v>
+        <v>306.013805990171</v>
       </c>
       <c r="Q31" t="n">
         <v>137.6164891609454</v>
@@ -37077,7 +37077,7 @@
         <v>567.4828716069364</v>
       </c>
       <c r="M32" t="n">
-        <v>663.4233676576675</v>
+        <v>663.4233676576652</v>
       </c>
       <c r="N32" t="n">
         <v>678.8186638380171</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.06641898038633</v>
+        <v>130.4659324783082</v>
       </c>
       <c r="K33" t="n">
         <v>301.9313263123287</v>
@@ -37156,7 +37156,7 @@
         <v>452.7743744781445</v>
       </c>
       <c r="M33" t="n">
-        <v>547.9187311216285</v>
+        <v>441.5192176237068</v>
       </c>
       <c r="N33" t="n">
         <v>576.9746963349326</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70.25051791313763</v>
+        <v>103.8867592358611</v>
       </c>
       <c r="K34" t="n">
-        <v>278.8216568367235</v>
+        <v>278.8216568367236</v>
       </c>
       <c r="L34" t="n">
-        <v>402.8652191106499</v>
+        <v>402.86521911065</v>
       </c>
       <c r="M34" t="n">
-        <v>433.3116774635143</v>
+        <v>433.3116774635144</v>
       </c>
       <c r="N34" t="n">
-        <v>429.3497718381024</v>
+        <v>429.3497718381025</v>
       </c>
       <c r="O34" t="n">
-        <v>383.1305119095027</v>
+        <v>383.1305119095028</v>
       </c>
       <c r="P34" t="n">
-        <v>264.2558272041086</v>
+        <v>230.6195858813823</v>
       </c>
       <c r="Q34" t="n">
-        <v>140.8488431627311</v>
+        <v>140.8488431627312</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>130.4659324783082</v>
       </c>
       <c r="K36" t="n">
-        <v>206.7024097271498</v>
+        <v>301.9313263123287</v>
       </c>
       <c r="L36" t="n">
         <v>452.7743744781445</v>
@@ -37399,7 +37399,7 @@
         <v>576.9746963349326</v>
       </c>
       <c r="O36" t="n">
-        <v>505.3748884155643</v>
+        <v>279.6800393520771</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>103.8867592358611</v>
       </c>
       <c r="K37" t="n">
-        <v>278.8216568367237</v>
+        <v>278.8216568367236</v>
       </c>
       <c r="L37" t="n">
-        <v>402.8652191106501</v>
+        <v>402.86521911065</v>
       </c>
       <c r="M37" t="n">
-        <v>433.3116774635145</v>
+        <v>354.6851033529398</v>
       </c>
       <c r="N37" t="n">
         <v>429.3497718381025</v>
@@ -37481,10 +37481,10 @@
         <v>383.1305119095028</v>
       </c>
       <c r="P37" t="n">
-        <v>230.6195858813814</v>
+        <v>309.2461599919568</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.8488431627313</v>
+        <v>140.8488431627312</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>427.3845810156587</v>
       </c>
       <c r="L38" t="n">
-        <v>567.4828716069364</v>
+        <v>567.4828716069361</v>
       </c>
       <c r="M38" t="n">
         <v>663.4233676576675</v>
@@ -37624,13 +37624,13 @@
         <v>130.4659324783082</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>301.9313263123287</v>
       </c>
       <c r="L39" t="n">
-        <v>452.7743744781445</v>
+        <v>388.9187036862871</v>
       </c>
       <c r="M39" t="n">
-        <v>214.6641617008475</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>576.9746963349326</v>
@@ -37645,7 +37645,7 @@
         <v>207.660525962971</v>
       </c>
       <c r="R39" t="n">
-        <v>23.41149381962387</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.2505179131378</v>
+        <v>103.8867592358611</v>
       </c>
       <c r="K40" t="n">
-        <v>278.8216568367237</v>
+        <v>200.1950827261488</v>
       </c>
       <c r="L40" t="n">
-        <v>402.8652191106501</v>
+        <v>402.86521911065</v>
       </c>
       <c r="M40" t="n">
         <v>433.3116774635145</v>
@@ -37718,7 +37718,7 @@
         <v>383.1305119095028</v>
       </c>
       <c r="P40" t="n">
-        <v>264.2558272041049</v>
+        <v>309.2461599919568</v>
       </c>
       <c r="Q40" t="n">
         <v>140.8488431627312</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>250.9663834609453</v>
+        <v>250.9663834609449</v>
       </c>
       <c r="K41" t="n">
         <v>427.3845810156587</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>130.4659324783082</v>
       </c>
       <c r="K42" t="n">
         <v>301.9313263123287</v>
@@ -37867,19 +37867,19 @@
         <v>452.7743744781445</v>
       </c>
       <c r="M42" t="n">
-        <v>66.61026168645087</v>
+        <v>547.9187311216285</v>
       </c>
       <c r="N42" t="n">
         <v>576.9746963349326</v>
       </c>
       <c r="O42" t="n">
-        <v>505.3748884155643</v>
+        <v>487.3405653150483</v>
       </c>
       <c r="P42" t="n">
-        <v>386.079552849999</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>207.660525962971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37955,7 +37955,7 @@
         <v>379.8981579077171</v>
       </c>
       <c r="P43" t="n">
-        <v>306.0138059901711</v>
+        <v>306.013805990171</v>
       </c>
       <c r="Q43" t="n">
         <v>137.6164891609454</v>
@@ -38037,7 +38037,7 @@
         <v>500.7236696210264</v>
       </c>
       <c r="Q44" t="n">
-        <v>327.3632827398674</v>
+        <v>327.3632827398669</v>
       </c>
       <c r="R44" t="n">
         <v>104.1528016053358</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>130.4659324783082</v>
       </c>
       <c r="K45" t="n">
-        <v>301.9313263123287</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>452.7743744781445</v>
@@ -38110,10 +38110,10 @@
         <v>576.9746963349326</v>
       </c>
       <c r="O45" t="n">
-        <v>231.7269449433573</v>
+        <v>505.3748884155643</v>
       </c>
       <c r="P45" t="n">
-        <v>386.079552849999</v>
+        <v>283.8970032118127</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.6544052340754</v>
+        <v>100.6544052340753</v>
       </c>
       <c r="K46" t="n">
         <v>275.5893028349379</v>
